--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -636,7 +636,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1156,7 +1156,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1403,7 +1403,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -2704,7 +2704,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,17 +3052,17 @@
       <selection pane="bottomLeft" activeCell="A27" sqref="A27:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3094,10 +3094,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!Q1/成交记录!P1</f>
-        <v>0.25210084033613445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.25423728813559321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3113,10 +3113,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!S1/成交记录!T1</f>
-        <v>0.81162590350452546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.83048596380877837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3128,85 +3128,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0.97581989999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3338,25 +3338,25 @@
         <v>0.98014959999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3376,29 +3376,29 @@
   <dimension ref="A1:U371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="1.875" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="10">
         <f>COUNT(K2:K9988)</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="13">
         <f>COUNTIF(K2:K9988,"&gt;0")</f>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="R1" s="13">
         <f>COUNTIF(K2:K9988,"&lt;0")</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S1" s="13">
         <f>SUMIF(K2:K9988,"&gt;0")</f>
@@ -3457,11 +3457,11 @@
       </c>
       <c r="T1" s="13">
         <f>ABS(SUMIF(K2:K9988,"&lt;0"))</f>
-        <v>615605.66000000038</v>
+        <v>601625.46000000043</v>
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3484,17 +3484,17 @@
         <v>43096</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="30">
+      <c r="K2" s="30" t="e">
         <f>IF(H2="","",C2*(H2-D2)*N2)</f>
-        <v>-13980.199999999995</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L2" s="1">
         <f>I2-$A$2</f>
         <v>2</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="11" t="str">
         <f>[1]!WSD($B2,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="P2" s="12" t="s">
         <v>123</v>
@@ -3515,7 +3515,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3624,7 +3624,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3661,7 +3661,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3858,7 +3858,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -3995,7 +3995,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4232,7 +4232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1">
+    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>60</v>
@@ -4258,7 +4258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -4333,7 +4333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" ht="15" thickBot="1">
+    <row r="36" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -4512,7 +4512,7 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>42</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>43</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>36</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>37</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>35</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>32</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>38</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>39</v>
@@ -4831,7 +4831,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>40</v>
@@ -4867,7 +4867,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>40</v>
@@ -4972,7 +4972,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="O52" s="36"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>53</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>56</v>
@@ -5517,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>42</v>
@@ -5643,7 +5643,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1">
+    <row r="78" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>89</v>
@@ -5917,7 +5917,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>93</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>94</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>95</v>
@@ -6145,7 +6145,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>96</v>
@@ -6327,7 +6327,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
@@ -6374,7 +6374,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>104</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>106</v>
@@ -6780,7 +6780,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>32</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>60</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>109</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>111</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>112</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>114</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="14.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>120</v>
@@ -7325,7 +7325,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="14.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>129</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="14.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>130</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="14.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="14.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>133</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="14.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>137</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="O115" s="53"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>138</v>
       </c>
@@ -7633,7 +7633,7 @@
       <c r="O116" s="53"/>
       <c r="P116" s="24"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>134</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="14.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" thickBot="1">
+    <row r="119" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>136</v>
@@ -7771,7 +7771,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="14.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="14.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>139</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="14.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>140</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="14.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>60</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="14.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="14.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>141</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="14.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>142</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="14.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>143</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="14.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>144</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="14.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>145</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="14.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>146</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="14.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>147</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="14.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>147</v>
@@ -8363,7 +8363,7 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="14.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43130</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1.8271382919080545</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="14.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>10.098637655776356</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="14.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>148</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>1.5392638249301374</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="14.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>149</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>13.03266339869281</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="14.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>150</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>1.830217334331711</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>150</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>1.8278222097588335</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="14.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>151</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>5.8652915113339326</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="14.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>152</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>10.405516177096636</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="14.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>153</v>
@@ -8726,1386 +8726,1566 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="1">
+        <v>20</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2342</v>
+      </c>
+      <c r="E142" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F142" s="40">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G142" s="31">
+        <f>2.1%*1/3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="N142" s="11">
+        <f>[1]!WSD($B142,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O142" s="53">
+        <v>9777025</v>
+      </c>
+      <c r="P142" s="24">
+        <f>O142*G142/(D142*N142*0.15)</f>
+        <v>19.481689439225732</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="1">
+        <v>20</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3940</v>
+      </c>
+      <c r="E143" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F143" s="40">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G143" s="31">
+        <f>2.7%*1/2</f>
+        <v>1.3500000000000002E-2</v>
+      </c>
       <c r="K143" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="N143" s="11">
+        <f>[1]!WSD($B143,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O143" s="53">
+        <v>9777026</v>
+      </c>
+      <c r="P143" s="24">
+        <f>O143*G143/(D143*N143*0.15)</f>
+        <v>22.333308121827415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="1">
+        <v>27</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2807</v>
+      </c>
+      <c r="E144" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F144" s="40">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G144" s="31">
+        <f>2.3%*1/2</f>
+        <v>1.15E-2</v>
+      </c>
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="11:11">
+      <c r="N144" s="11">
+        <f>[1]!WSD($B144,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O144" s="53">
+        <v>9777027</v>
+      </c>
+      <c r="P144" s="24">
+        <f>O144*G144/(D144*N144*0.15)</f>
+        <v>26.703671891699322</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3950</v>
+      </c>
+      <c r="E145" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F145" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G145" s="31">
+        <f>2.9%*1/3</f>
+        <v>9.6666666666666654E-3</v>
+      </c>
       <c r="K145" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="11:11">
+      <c r="N145" s="11">
+        <f>[1]!WSD($B145,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O145" s="53">
+        <v>9777028</v>
+      </c>
+      <c r="P145" s="24">
+        <f t="shared" ref="P145:P146" si="67">O145*G145/(D145*N145*0.15)</f>
+        <v>15.951269310829813</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="1">
+        <v>16</v>
+      </c>
+      <c r="D146" s="1">
+        <v>667.75</v>
+      </c>
+      <c r="E146" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F146" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G146" s="31">
+        <f>3.3%*0.5</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
       <c r="K146" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="11:11">
+      <c r="N146" s="11">
+        <f>[1]!WSD($B146,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O146" s="53">
+        <v>9777029</v>
+      </c>
+      <c r="P146" s="24">
+        <f t="shared" si="67"/>
+        <v>16.105925720703855</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="1">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1295.5</v>
+      </c>
+      <c r="E147" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F147" s="40">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G147" s="31">
+        <f>2.5%*0.5</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="K147" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="11:11">
+      <c r="N147" s="11">
+        <f>[1]!WSD($B147,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="O147" s="53">
+        <v>9777030</v>
+      </c>
+      <c r="P147" s="24">
+        <f t="shared" ref="P147" si="68">O147*G147/(D147*N147*0.15)</f>
+        <v>10.481828122989837</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K148" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K149" s="30" t="str">
-        <f t="shared" ref="K149:K212" si="67">IF(H149="","",C149*(H149-D149)*N149)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
+        <f t="shared" ref="K149:K212" si="69">IF(H149="","",C149*(H149-D149)*N149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K150" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K151" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K152" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K153" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K154" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K155" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K156" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K157" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K210" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K213" s="30" t="str">
-        <f t="shared" ref="K213:K276" si="68">IF(H213="","",C213*(H213-D213)*N213)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
+        <f t="shared" ref="K213:K276" si="70">IF(H213="","",C213*(H213-D213)*N213)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K274" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K277" s="30" t="str">
-        <f t="shared" ref="K277:K340" si="69">IF(H277="","",C277*(H277-D277)*N277)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
+        <f t="shared" ref="K277:K340" si="71">IF(H277="","",C277*(H277-D277)*N277)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K338" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K341" s="30" t="str">
-        <f t="shared" ref="K341:K371" si="70">IF(H341="","",C341*(H341-D341)*N341)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11">
+        <f t="shared" ref="K341:K371" si="72">IF(H341="","",C341*(H341-D341)*N341)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K369" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K370" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="11:11">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K371" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
     </row>
@@ -10125,13 +10305,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -10164,7 +10344,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -10196,7 +10376,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -10228,7 +10408,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -10260,7 +10440,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -10292,7 +10472,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -10324,7 +10504,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -10356,7 +10536,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -10388,7 +10568,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -10414,7 +10594,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -10446,7 +10626,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -10479,7 +10659,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -10511,7 +10691,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -10543,7 +10723,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -10575,7 +10755,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -10607,7 +10787,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -10639,7 +10819,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -10671,7 +10851,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -10703,7 +10883,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -10735,7 +10915,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -10768,7 +10948,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -10800,7 +10980,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -10832,7 +11012,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -10864,7 +11044,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -10896,7 +11076,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -10928,7 +11108,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -10960,7 +11140,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -10992,7 +11172,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -11024,7 +11204,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -11056,7 +11236,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -11088,7 +11268,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -11120,7 +11300,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -11171,17 +11351,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11206,7 +11386,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -11229,7 +11409,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -11249,7 +11429,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -11269,7 +11449,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -11292,7 +11472,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -11315,7 +11495,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -11335,7 +11515,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -11355,7 +11535,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -11378,7 +11558,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -11401,7 +11581,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -11421,7 +11601,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -11441,7 +11621,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -11461,7 +11641,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -11499,15 +11679,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -11539,7 +11719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -11569,7 +11749,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -11599,7 +11779,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -11629,7 +11809,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -11659,7 +11839,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -11689,7 +11869,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -11719,7 +11899,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -11749,7 +11929,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -11779,7 +11959,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -11809,7 +11989,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -11839,7 +12019,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -11869,7 +12049,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -11896,7 +12076,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -11923,7 +12103,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -11950,7 +12130,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -11977,7 +12157,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -12004,7 +12184,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -12031,7 +12211,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -12058,7 +12238,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -12085,7 +12265,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -12112,7 +12292,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -12139,7 +12319,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -12166,7 +12346,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -12193,7 +12373,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -12220,7 +12400,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -12247,7 +12427,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -12274,7 +12454,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -12301,7 +12481,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -12328,7 +12508,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -12355,7 +12535,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -12382,7 +12562,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -12409,7 +12589,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -12436,7 +12616,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -12463,7 +12643,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -12490,7 +12670,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -12517,7 +12697,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -12544,7 +12724,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -12571,7 +12751,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -12598,7 +12778,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -12625,7 +12805,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -12652,7 +12832,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -12679,7 +12859,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -12706,7 +12886,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -12733,7 +12913,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -12760,31 +12940,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1171,11 +1171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="488916208"/>
-        <c:axId val="488916768"/>
+        <c:axId val="263774512"/>
+        <c:axId val="263775632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488916208"/>
+        <c:axId val="263774512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,14 +1218,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488916768"/>
+        <c:crossAx val="263775632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488916768"/>
+        <c:axId val="263775632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488916208"/>
+        <c:crossAx val="263774512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,11 +1418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="488919008"/>
-        <c:axId val="488919568"/>
+        <c:axId val="263778992"/>
+        <c:axId val="263779552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488919008"/>
+        <c:axId val="263778992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,14 +1465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488919568"/>
+        <c:crossAx val="263779552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488919568"/>
+        <c:axId val="263779552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488919008"/>
+        <c:crossAx val="263778992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2704,7 +2704,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="169">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +621,66 @@
   </si>
   <si>
     <t>T1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZN1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,6 +1004,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1171,11 +1232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="263774512"/>
-        <c:axId val="263775632"/>
+        <c:axId val="456361184"/>
+        <c:axId val="456361744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="263774512"/>
+        <c:axId val="456361184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,14 +1279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263775632"/>
+        <c:crossAx val="456361744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="263775632"/>
+        <c:axId val="456361744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263774512"/>
+        <c:crossAx val="456361184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,11 +1479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="263778992"/>
-        <c:axId val="263779552"/>
+        <c:axId val="456365104"/>
+        <c:axId val="456365664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="263778992"/>
+        <c:axId val="456365104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,14 +1526,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263779552"/>
+        <c:crossAx val="456365664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="263779552"/>
+        <c:axId val="456365664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1584,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263778992"/>
+        <c:crossAx val="456365104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2704,7 +2765,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2801,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,7 +3110,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:C31"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3094,7 +3155,7 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!Q1/成交记录!P1</f>
-        <v>0.25210084033613445</v>
+        <v>0.25384615384615383</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3113,7 +3174,7 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!S1/成交记录!T1</f>
-        <v>0.81162590350452546</v>
+        <v>0.80358422675084018</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3373,11 +3434,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U371"/>
+  <dimension ref="A1:U370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K142" sqref="K142:K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3440,24 +3501,24 @@
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="10">
-        <f>COUNT(K2:K9988)</f>
-        <v>119</v>
+        <f>COUNT(K2:K9987)</f>
+        <v>130</v>
       </c>
       <c r="Q1" s="13">
-        <f>COUNTIF(K2:K9988,"&gt;0")</f>
-        <v>30</v>
+        <f>COUNTIF(K2:K9987,"&gt;0")</f>
+        <v>33</v>
       </c>
       <c r="R1" s="13">
-        <f>COUNTIF(K2:K9988,"&lt;0")</f>
-        <v>87</v>
+        <f>COUNTIF(K2:K9987,"&lt;0")</f>
+        <v>95</v>
       </c>
       <c r="S1" s="13">
-        <f>SUMIF(K2:K9988,"&gt;0")</f>
-        <v>499641.5</v>
+        <f>SUMIF(K2:K9987,"&gt;0")</f>
+        <v>514981.49999999994</v>
       </c>
       <c r="T1" s="13">
-        <f>ABS(SUMIF(K2:K9988,"&lt;0"))</f>
-        <v>615605.66000000038</v>
+        <f>ABS(SUMIF(K2:K9987,"&lt;0"))</f>
+        <v>640855.66000000073</v>
       </c>
       <c r="U1" s="13"/>
     </row>
@@ -6083,7 +6144,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="K82" s="30">
-        <f t="shared" ref="K82:K148" si="15">IF(H82="","",C82*(H82-D82)*N82)</f>
+        <f t="shared" ref="K82:K147" si="15">IF(H82="","",C82*(H82-D82)*N82)</f>
         <v>-1000</v>
       </c>
       <c r="N82" s="11">
@@ -8431,9 +8492,18 @@
         <f>2.3%*0.5</f>
         <v>1.15E-2</v>
       </c>
-      <c r="K134" s="30" t="str">
+      <c r="H134" s="1">
+        <v>14645</v>
+      </c>
+      <c r="I134" s="2">
+        <v>43130</v>
+      </c>
+      <c r="J134" s="40">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="K134" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="N134" s="11">
         <f>[1]!WSD($B134,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -8598,9 +8668,19 @@
         <f>1.5%*1/2</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I138" s="2"/>
-      <c r="J138" s="40"/>
-      <c r="K138" s="30"/>
+      <c r="H138" s="1">
+        <v>53140</v>
+      </c>
+      <c r="I138" s="2">
+        <v>43131</v>
+      </c>
+      <c r="J138" s="40">
+        <v>0.46875</v>
+      </c>
+      <c r="K138" s="30">
+        <f t="shared" si="15"/>
+        <v>3500</v>
+      </c>
       <c r="N138" s="11">
         <f>[1]!WSD($B138,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>5</v>
@@ -8633,9 +8713,18 @@
         <f>1.4%*1/3</f>
         <v>4.6666666666666662E-3</v>
       </c>
-      <c r="K139" s="30" t="str">
+      <c r="H139" s="1">
+        <v>5194</v>
+      </c>
+      <c r="I139" s="2">
+        <v>43130</v>
+      </c>
+      <c r="J139" s="40">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K139" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-480</v>
       </c>
       <c r="N139" s="11">
         <f>[1]!WSD($B139,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -8669,9 +8758,18 @@
         <f>1%*1/3</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="K140" s="30" t="str">
+      <c r="H140" s="1">
+        <v>2093</v>
+      </c>
+      <c r="I140" s="2">
+        <v>43130</v>
+      </c>
+      <c r="J140" s="40">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K140" s="30">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-500</v>
       </c>
       <c r="N140" s="11">
         <f>[1]!WSD($B140,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
@@ -8705,12 +8803,18 @@
       <c r="G141" s="32">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="28" t="str">
+      <c r="H141" s="3">
+        <v>91.965000000000003</v>
+      </c>
+      <c r="I141" s="33">
+        <v>43131</v>
+      </c>
+      <c r="J141" s="45">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="K141" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-1650.0000000000625</v>
       </c>
       <c r="L141" s="3"/>
       <c r="M141" s="4"/>
@@ -8726,1386 +8830,1919 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" ht="14.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" s="1">
+        <v>20</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2342</v>
+      </c>
+      <c r="E142" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F142" s="40">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="G142" s="31">
+        <f>2.1%*1/3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="K142" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="K143" s="30" t="str">
+      <c r="N142" s="11">
+        <f>[1]!WSD($B142,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O142" s="53">
+        <v>9777025</v>
+      </c>
+      <c r="P142" s="24">
+        <f t="shared" ref="P142:P147" si="67">O142*G142/(D142*N142*0.15)</f>
+        <v>19.481689439225732</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="14.25">
+      <c r="B143" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="1">
+        <v>20</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3940</v>
+      </c>
+      <c r="E143" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F143" s="40">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="G143" s="31">
+        <f>2.7%*0.5</f>
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>3915</v>
+      </c>
+      <c r="I143" s="2">
+        <v>43131</v>
+      </c>
+      <c r="J143" s="40">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="K143" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
+        <v>-5000</v>
+      </c>
+      <c r="N143" s="11">
+        <f>[1]!WSD($B143,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O143" s="53">
+        <v>9777026</v>
+      </c>
+      <c r="P143" s="24">
+        <f t="shared" si="67"/>
+        <v>22.333308121827415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="14.25">
+      <c r="B144" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="1">
+        <v>27</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2807</v>
+      </c>
+      <c r="E144" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F144" s="40">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="G144" s="31">
+        <f>2.3%*1/2</f>
+        <v>1.15E-2</v>
+      </c>
       <c r="K144" s="30" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="11:11">
-      <c r="K145" s="30" t="str">
+      <c r="N144" s="11">
+        <f>[1]!WSD($B144,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O144" s="53">
+        <v>9777027</v>
+      </c>
+      <c r="P144" s="24">
+        <f t="shared" si="67"/>
+        <v>26.703671891699322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="14.25">
+      <c r="B145" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" s="1">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3950</v>
+      </c>
+      <c r="E145" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F145" s="40">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G145" s="31">
+        <f>2.9%*1/3</f>
+        <v>9.6666666666666654E-3</v>
+      </c>
+      <c r="H145" s="1">
+        <v>3929</v>
+      </c>
+      <c r="I145" s="2">
+        <v>43131</v>
+      </c>
+      <c r="J145" s="40">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="K145" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="11:11">
-      <c r="K146" s="30" t="str">
+        <v>-3360</v>
+      </c>
+      <c r="N145" s="11">
+        <f>[1]!WSD($B145,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O145" s="53">
+        <v>9777028</v>
+      </c>
+      <c r="P145" s="24">
+        <f t="shared" si="67"/>
+        <v>15.951269310829813</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="14.25">
+      <c r="B146" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="1">
+        <v>16</v>
+      </c>
+      <c r="D146" s="1">
+        <v>667.6</v>
+      </c>
+      <c r="E146" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F146" s="40">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G146" s="31">
+        <f>3.3%*0.5</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>664.8</v>
+      </c>
+      <c r="I146" s="2">
+        <v>43131</v>
+      </c>
+      <c r="J146" s="40">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="K146" s="30">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="11:11">
-      <c r="K147" s="30" t="str">
+        <v>-4480.0000000001091</v>
+      </c>
+      <c r="N146" s="11">
+        <f>[1]!WSD($B146,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O146" s="53">
+        <v>9777029</v>
+      </c>
+      <c r="P146" s="24">
+        <f t="shared" si="67"/>
+        <v>16.109544487717194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="14.25">
+      <c r="B147" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="3">
+        <v>10</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1295.5</v>
+      </c>
+      <c r="E147" s="33">
+        <v>43130</v>
+      </c>
+      <c r="F147" s="45">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G147" s="32">
+        <f>2.5%*0.5</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H147" s="3">
+        <v>1285</v>
+      </c>
+      <c r="I147" s="33">
+        <v>43131</v>
+      </c>
+      <c r="J147" s="45">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="K147" s="28">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="11:11">
+        <v>-6300</v>
+      </c>
+      <c r="L147" s="3"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="11">
+        <f>[1]!WSD($B147,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="O147" s="53">
+        <v>9777030</v>
+      </c>
+      <c r="P147" s="24">
+        <f t="shared" si="67"/>
+        <v>10.481828122989837</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="14.25">
+      <c r="B148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1986.5</v>
+      </c>
+      <c r="E148" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F148" s="40">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G148" s="31">
+        <f>2.9%*0.5</f>
+        <v>1.4499999999999999E-2</v>
+      </c>
       <c r="K148" s="30" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="11:11">
+        <f t="shared" ref="K148:K150" si="68">IF(H148="","",C148*(H148-D148)*N148)</f>
+        <v/>
+      </c>
+      <c r="N148" s="11">
+        <f>[1]!WSD($B148,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="O148" s="53">
+        <v>9777025</v>
+      </c>
+      <c r="P148" s="24">
+        <f t="shared" ref="P148:P149" si="69">O148*G148/(D148*N148*0.15)</f>
+        <v>4.7576763990267636</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="14.25">
+      <c r="B149" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="1">
+        <v>-13</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3595</v>
+      </c>
+      <c r="E149" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F149" s="40">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G149" s="31">
+        <f>2.2%*1/3</f>
+        <v>7.3333333333333341E-3</v>
+      </c>
       <c r="K149" s="30" t="str">
-        <f t="shared" ref="K149:K212" si="67">IF(H149="","",C149*(H149-D149)*N149)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
-      <c r="K150" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="N149" s="11">
+        <f>[1]!WSD($B149,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O149" s="53">
+        <v>9777026</v>
+      </c>
+      <c r="P149" s="24">
+        <f t="shared" si="69"/>
+        <v>13.295909256683668</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="14.25">
+      <c r="B150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>4292</v>
+      </c>
+      <c r="E150" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F150" s="40">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G150" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>4280.3999999999996</v>
+      </c>
+      <c r="I150" s="2">
+        <v>43131</v>
+      </c>
+      <c r="J150" s="40">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="K150" s="30">
+        <f t="shared" si="68"/>
+        <v>-3480.0000000001091</v>
+      </c>
+      <c r="N150" s="11">
+        <f>[1]!WSD($B150,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
+      <c r="O150" s="53">
+        <v>9777027</v>
+      </c>
+      <c r="P150" s="24">
+        <f t="shared" ref="P150:P151" si="70">O150*G150/(D150*N150*0.15)</f>
+        <v>0.75932176141658903</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="14.25">
+      <c r="B151" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" s="1">
+        <v>-14</v>
+      </c>
+      <c r="D151" s="1">
+        <v>14615</v>
+      </c>
+      <c r="E151" s="2">
+        <v>43130</v>
+      </c>
+      <c r="F151" s="40">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G151" s="31">
+        <f>3.2%*0.5</f>
+        <v>1.6E-2</v>
+      </c>
       <c r="K151" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
-      <c r="K152" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
+        <f t="shared" ref="K148:K211" si="71">IF(H151="","",C151*(H151-D151)*N151)</f>
+        <v/>
+      </c>
+      <c r="N151" s="11">
+        <f>[1]!WSD($B151,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O151" s="53">
+        <v>9777028</v>
+      </c>
+      <c r="P151" s="24">
+        <f t="shared" si="70"/>
+        <v>14.271405907172996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="14.25">
+      <c r="B152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>6169.4</v>
+      </c>
+      <c r="E152" s="2">
+        <v>43131</v>
+      </c>
+      <c r="F152" s="40">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G152" s="31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H152" s="1">
+        <v>6160.2</v>
+      </c>
+      <c r="I152" s="2">
+        <v>43131</v>
+      </c>
+      <c r="J152" s="40">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="K152" s="30">
+        <f t="shared" si="71"/>
+        <v>1839.9999999999636</v>
+      </c>
+      <c r="N152" s="11">
+        <f>[1]!WSD($B152,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>200</v>
+      </c>
+      <c r="O152" s="53">
+        <v>9777029</v>
+      </c>
+      <c r="P152" s="24">
+        <f t="shared" ref="P152" si="72">O152*G152/(D152*N152*0.15)</f>
+        <v>0.950857036340649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="14.25">
+      <c r="B153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C153" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D153" s="1">
+        <v>53050</v>
+      </c>
+      <c r="E153" s="2">
+        <v>43131</v>
+      </c>
+      <c r="F153" s="40">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="G153" s="31">
+        <f>3.1%*0.5</f>
+        <v>1.55E-2</v>
+      </c>
       <c r="K153" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="N153" s="11">
+        <f>[1]!WSD($B153,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O153" s="53">
+        <v>9777030</v>
+      </c>
+      <c r="P153" s="24">
+        <f t="shared" ref="P153" si="73">O153*G153/(D153*N153*0.15)</f>
+        <v>3.8088335532516493</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="14.25">
+      <c r="B154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>4287</v>
+      </c>
+      <c r="E154" s="2">
+        <v>43131</v>
+      </c>
+      <c r="F154" s="40">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="G154" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="K154" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="N154" s="11">
+        <f>[1]!WSD($B154,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
+      <c r="O154" s="53">
+        <v>9777031</v>
+      </c>
+      <c r="P154" s="24">
+        <f t="shared" ref="P154:P155" si="74">O154*G154/(D154*N154*0.15)</f>
+        <v>0.7602076821398025</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="14.25">
+      <c r="B155" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2896</v>
+      </c>
+      <c r="E155" s="2">
+        <v>43131</v>
+      </c>
+      <c r="F155" s="40">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="G155" s="31">
+        <f>0.5%*1/3</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
       <c r="K155" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="N155" s="11">
+        <f>[1]!WSD($B155,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O155" s="53">
+        <v>9777032</v>
+      </c>
+      <c r="P155" s="24">
+        <f t="shared" si="74"/>
+        <v>3.7511632903621859</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="14.25">
+      <c r="B156" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="1">
+        <v>8</v>
+      </c>
+      <c r="D156" s="1">
+        <v>26733.75</v>
+      </c>
+      <c r="E156" s="2">
+        <v>43131</v>
+      </c>
+      <c r="F156" s="40">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="G156" s="31">
+        <f>3.4%*0.5</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="K156" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
-      <c r="K157" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="N156" s="11">
+        <f>[1]!WSD($B156,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="O156" s="53">
+        <v>9777033</v>
+      </c>
+      <c r="P156" s="24">
+        <f t="shared" ref="P156" si="75">O156*G156/(D156*N156*0.15)</f>
+        <v>8.289624463459111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="14.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="3">
+        <v>-9</v>
+      </c>
+      <c r="D157" s="3">
+        <v>5192</v>
+      </c>
+      <c r="E157" s="33">
+        <v>43131</v>
+      </c>
+      <c r="F157" s="45">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="G157" s="32">
+        <f>2.1%*1/3</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="28" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="L157" s="3"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="11">
+        <f>[1]!WSD($B157,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O157" s="53">
+        <v>9777034</v>
+      </c>
+      <c r="P157" s="24">
+        <f t="shared" ref="P157" si="76">O157*G157/(D157*N157*0.15)</f>
+        <v>8.7877809450436573</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="K158" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="K159" s="30" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="K160" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="K212:K275" si="77">IF(H212="","",C212*(H212-D212)*N212)</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" s="30" t="str">
-        <f t="shared" ref="K213:K276" si="68">IF(H213="","",C213*(H213-D213)*N213)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" s="30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="K276:K339" si="78">IF(H276="","",C276*(H276-D276)*N276)</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" s="30" t="str">
-        <f t="shared" ref="K277:K340" si="69">IF(H277="","",C277*(H277-D277)*N277)</f>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="11:11">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="11:11">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="11:11">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="11:11">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="11:11">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="11:11">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="11:11">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="11:11">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="11:11">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="11:11">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="11:11">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="11:11">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="11:11">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="11:11">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="11:11">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="11:11">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="11:11">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="11:11">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="11:11">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="11:11">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="11:11">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="11:11">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="11:11">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="11:11">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="11:11">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="11:11">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="11:11">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="11:11">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="11:11">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="11:11">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="11:11">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="11:11">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="11:11">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="11:11">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="11:11">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="11:11">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="11:11">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="11:11">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="11:11">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="11:11">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="11:11">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="11:11">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="11:11">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="11:11">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="11:11">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="11:11">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="11:11">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="11:11">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="11:11">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="11:11">
       <c r="K338" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="11:11">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="11:11">
       <c r="K340" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="K340:K370" si="79">IF(H340="","",C340*(H340-D340)*N340)</f>
         <v/>
       </c>
     </row>
     <row r="341" spans="11:11">
       <c r="K341" s="30" t="str">
-        <f t="shared" ref="K341:K371" si="70">IF(H341="","",C341*(H341-D341)*N341)</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="11:11">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="11:11">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="11:11">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="11:11">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="11:11">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="11:11">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="11:11">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="11:11">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="11:11">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="11:11">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="11:11">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="11:11">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="11:11">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="11:11">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="11:11">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="11:11">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="11:11">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="11:11">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="11:11">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="11:11">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="11:11">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="11:11">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="11:11">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="11:11">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="11:11">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="11:11">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="11:11">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="11:11">
       <c r="K369" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="11:11">
       <c r="K370" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="11:11">
-      <c r="K371" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
     </row>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="169">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -696,7 +696,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1004,7 +1004,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1217,7 +1216,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1387,7 +1386,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1464,7 +1463,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -2765,7 +2764,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2800,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,17 +3112,17 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3139,7 +3138,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>0.25384615384615383</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>0.80358422675084018</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3189,85 +3188,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>0.97581989999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3399,25 +3398,25 @@
         <v>0.98014959999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3437,29 +3436,29 @@
   <dimension ref="A1:U370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K142" sqref="K142:K157"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="1.875" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3521,7 @@
       </c>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3617,7 +3616,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3643,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3685,7 +3684,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -3722,7 +3721,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3764,7 +3763,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -3806,7 +3805,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -3919,7 +3918,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -4026,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -4056,7 +4055,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -4293,7 +4292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1">
+    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>60</v>
@@ -4319,7 +4318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -4394,7 +4393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4502,7 +4501,7 @@
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" ht="15" thickBot="1">
+    <row r="36" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -4573,7 +4572,7 @@
       <c r="O36" s="36"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4605,7 +4604,7 @@
       <c r="O37" s="36"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" ht="14.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>42</v>
       </c>
@@ -4634,7 +4633,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" ht="14.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>43</v>
       </c>
@@ -4667,7 +4666,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>36</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>37</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>35</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>32</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>38</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>39</v>
@@ -4892,7 +4891,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>40</v>
@@ -4928,7 +4927,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -4964,7 +4963,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4995,7 +4994,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>40</v>
@@ -5033,7 +5032,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -5064,7 +5063,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -5094,7 +5093,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -5121,7 +5120,7 @@
       <c r="O52" s="36"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>48</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="14.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>53</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="14.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>56</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>56</v>
@@ -5578,7 +5577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>42</v>
@@ -5704,7 +5703,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>19</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1">
+    <row r="78" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>89</v>
@@ -5978,7 +5977,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>93</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>94</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>95</v>
@@ -6206,7 +6205,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>98</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>96</v>
@@ -6388,7 +6387,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>107</v>
@@ -6435,7 +6434,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>104</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>105</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>106</v>
@@ -6841,7 +6840,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>32</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>60</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>109</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>111</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>112</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>114</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="14.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>120</v>
@@ -7386,7 +7385,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="14.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>129</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="14.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>130</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="14.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="14.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>133</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="14.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>137</v>
       </c>
@@ -7655,7 +7654,7 @@
       <c r="O115" s="53"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>138</v>
       </c>
@@ -7694,7 +7693,7 @@
       <c r="O116" s="53"/>
       <c r="P116" s="24"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>134</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="14.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>135</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" thickBot="1">
+    <row r="119" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>136</v>
@@ -7832,7 +7831,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="14.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="14.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>139</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="14.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>140</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="14.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>60</v>
       </c>
@@ -8015,7 +8014,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="14.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="14.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>141</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="14.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>142</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="14.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>143</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="14.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>144</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="14.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>145</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="14.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>146</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="14.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>147</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="14.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>147</v>
@@ -8424,7 +8423,7 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="14.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43130</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>1.8271382919080545</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="14.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>10.098637655776356</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="14.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>148</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>1.5392638249301374</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="14.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>149</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>13.03266339869281</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="14.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>150</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>1.830217334331711</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>150</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>1.8278222097588335</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="14.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>151</v>
       </c>
@@ -8738,7 +8737,7 @@
         <v>5.8652915113339326</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="14.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>152</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>10.405516177096636</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="14.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>153</v>
@@ -8830,7 +8829,7 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="14.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>19.481689439225732</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="14.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>157</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>22.333308121827415</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="14.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>158</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>26.703671891699322</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="14.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>159</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>15.951269310829813</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="14.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>160</v>
       </c>
@@ -9040,7 +9039,7 @@
         <v>16.109544487717194</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="14.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>161</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>10.481828122989837</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="14.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>154</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>4.7576763990267636</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="14.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>155</v>
       </c>
@@ -9159,7 +9158,7 @@
         <v>13.295909256683668</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="14.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>162</v>
       </c>
@@ -9203,7 +9202,7 @@
         <v>0.75932176141658903</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="14.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>163</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="K151" s="30" t="str">
-        <f t="shared" ref="K148:K211" si="71">IF(H151="","",C151*(H151-D151)*N151)</f>
+        <f t="shared" ref="K151:K211" si="71">IF(H151="","",C151*(H151-D151)*N151)</f>
         <v/>
       </c>
       <c r="N151" s="11">
@@ -9239,7 +9238,7 @@
         <v>14.271405907172996</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="14.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>164</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>0.950857036340649</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="14.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>165</v>
       </c>
@@ -9319,7 +9318,7 @@
         <v>3.8088335532516493</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="14.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>162</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>0.7602076821398025</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="14.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>166</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>3.7511632903621859</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="14.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>167</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>8.289624463459111</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="14.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>168</v>
@@ -9468,1281 +9467,1326 @@
         <v>8.7877809450436573</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3961</v>
+      </c>
+      <c r="G158" s="31">
+        <f>2.9%*1/3</f>
+        <v>9.6666666666666654E-3</v>
+      </c>
       <c r="K158" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="N158" s="11">
+        <f>[1]!WSD($B158,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O158" s="53">
+        <v>9777035</v>
+      </c>
+      <c r="P158" s="24">
+        <f t="shared" ref="P158:P159" si="77">O158*G158/(D158*N158*0.15)</f>
+        <v>15.906982804566745</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3936</v>
+      </c>
+      <c r="G159" s="31">
+        <f>2.1%*0.5</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
       <c r="K159" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="N159" s="11">
+        <f>[1]!WSD($B159,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="O159" s="53">
+        <v>9777036</v>
+      </c>
+      <c r="P159" s="24">
+        <f t="shared" si="77"/>
+        <v>17.388021341463418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K160" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="11:11">
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K161" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="11:11">
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K162" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="11:11">
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K163" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="11:11">
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K164" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="11:11">
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K165" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="11:11">
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K166" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="11:11">
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K167" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="11:11">
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K168" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="11:11">
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K169" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="11:11">
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K170" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="11:11">
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K171" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="11:11">
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K172" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="11:11">
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K173" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="11:11">
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K174" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="11:11">
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K175" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="11:11">
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K176" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="11:11">
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K177" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="11:11">
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K178" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="11:11">
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K179" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="11:11">
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K180" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="11:11">
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K181" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="11:11">
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K182" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="11:11">
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K183" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="11:11">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K184" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="11:11">
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K185" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="11:11">
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K186" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="11:11">
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K187" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="11:11">
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K188" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="11:11">
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K189" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="11:11">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K190" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="11:11">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K191" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="11:11">
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K192" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="11:11">
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K193" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="11:11">
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K194" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="11:11">
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K195" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="11:11">
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K196" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="11:11">
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K197" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="11:11">
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K198" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="11:11">
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K199" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="11:11">
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K200" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="11:11">
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K201" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="11:11">
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K202" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="11:11">
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K203" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="11:11">
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K204" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="11:11">
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K205" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="11:11">
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K206" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="11:11">
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K207" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="11:11">
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K208" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="11:11">
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K209" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="11:11">
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K210" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="11:11">
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K211" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="11:11">
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K212" s="30" t="str">
-        <f t="shared" ref="K212:K275" si="77">IF(H212="","",C212*(H212-D212)*N212)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
+        <f t="shared" ref="K212:K275" si="78">IF(H212="","",C212*(H212-D212)*N212)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K213" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K214" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K215" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K216" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K217" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K218" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K219" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K220" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K221" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K222" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K223" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K224" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K225" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K226" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K227" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K228" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K229" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K230" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K231" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K232" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K233" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K234" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K235" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K236" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K237" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K238" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K239" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K240" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K241" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K242" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K243" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K244" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K245" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K246" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K247" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K248" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K249" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K250" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K251" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K252" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K253" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K254" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K255" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K256" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K257" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K258" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K259" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K260" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K261" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K262" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K263" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K264" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K265" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K266" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K267" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K268" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K269" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K270" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K271" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K272" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K273" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K274" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K275" s="30" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K276" s="30" t="str">
-        <f t="shared" ref="K276:K339" si="78">IF(H276="","",C276*(H276-D276)*N276)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
+        <f t="shared" ref="K276:K339" si="79">IF(H276="","",C276*(H276-D276)*N276)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K277" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K278" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K279" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K280" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K281" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K282" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K283" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K284" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K285" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K286" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K287" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K288" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K289" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K290" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K291" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K292" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K293" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K294" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K295" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K296" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K297" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K298" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K299" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K300" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K301" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K302" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K303" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K304" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K305" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K306" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K307" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K308" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K309" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K310" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K311" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K312" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K313" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K314" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K315" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K316" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K317" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K318" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K319" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K320" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K321" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K322" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K323" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K324" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K325" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K326" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K327" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K328" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K329" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K330" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K331" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K332" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K333" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K334" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K335" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K336" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K337" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K338" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K339" s="30" t="str">
-        <f t="shared" si="78"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="11:11">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K340" s="30" t="str">
-        <f t="shared" ref="K340:K370" si="79">IF(H340="","",C340*(H340-D340)*N340)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="11:11">
+        <f t="shared" ref="K340:K370" si="80">IF(H340="","",C340*(H340-D340)*N340)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K341" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K342" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K343" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K344" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K345" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K346" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K347" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K348" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K349" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K350" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K351" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K352" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K353" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K354" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K355" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K356" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K357" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K358" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K359" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K360" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K361" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K362" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K363" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K364" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K365" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K366" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K367" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K368" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K369" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="11:11">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K370" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
     </row>
@@ -10762,13 +10806,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -10801,7 +10845,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -10833,7 +10877,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -10865,7 +10909,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -10897,7 +10941,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -10929,7 +10973,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -10961,7 +11005,7 @@
         <v>-20520</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -10993,7 +11037,7 @@
         <v>-4720</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
@@ -11025,7 +11069,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -11051,7 +11095,7 @@
         <v>71820.000000000029</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>104</v>
       </c>
@@ -11083,7 +11127,7 @@
         <v>-11700</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
@@ -11116,7 +11160,7 @@
         <v>-660</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>99</v>
       </c>
@@ -11148,7 +11192,7 @@
         <v>-9010</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
@@ -11180,7 +11224,7 @@
         <v>3210.9999999999764</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -11212,7 +11256,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -11244,7 +11288,7 @@
         <v>-4200</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -11276,7 +11320,7 @@
         <v>-11109.960000000021</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -11308,7 +11352,7 @@
         <v>-13020</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>97</v>
       </c>
@@ -11340,7 +11384,7 @@
         <v>-17160</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -11372,7 +11416,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -11405,7 +11449,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
@@ -11437,7 +11481,7 @@
         <v>-2760</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
@@ -11469,7 +11513,7 @@
         <v>-4060</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>96</v>
       </c>
@@ -11501,7 +11545,7 @@
         <v>-7280</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>96</v>
       </c>
@@ -11533,7 +11577,7 @@
         <v>-7665</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -11565,7 +11609,7 @@
         <v>15340</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -11597,7 +11641,7 @@
         <v>-6720</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -11629,7 +11673,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -11661,7 +11705,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
@@ -11693,7 +11737,7 @@
         <v>-5890.49999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
@@ -11725,7 +11769,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>92</v>
       </c>
@@ -11757,7 +11801,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -11808,17 +11852,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11843,7 +11887,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -11866,7 +11910,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -11886,7 +11930,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -11906,7 +11950,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -11929,7 +11973,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -11952,7 +11996,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -11972,7 +12016,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -11992,7 +12036,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -12015,7 +12059,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -12038,7 +12082,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -12058,7 +12102,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -12078,7 +12122,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -12098,7 +12142,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>30</v>
@@ -12136,15 +12180,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -12176,7 +12220,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -12206,7 +12250,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -12236,7 +12280,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -12266,7 +12310,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -12296,7 +12340,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -12326,7 +12370,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -12356,7 +12400,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -12386,7 +12430,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -12416,7 +12460,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -12446,7 +12490,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -12476,7 +12520,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -12506,7 +12550,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -12533,7 +12577,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -12560,7 +12604,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -12587,7 +12631,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -12614,7 +12658,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -12641,7 +12685,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -12668,7 +12712,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -12695,7 +12739,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -12722,7 +12766,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -12749,7 +12793,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -12776,7 +12820,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -12803,7 +12847,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -12830,7 +12874,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -12857,7 +12901,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -12884,7 +12928,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -12911,7 +12955,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -12938,7 +12982,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -12965,7 +13009,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -12992,7 +13036,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -13019,7 +13063,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -13046,7 +13090,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -13073,7 +13117,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -13100,7 +13144,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -13127,7 +13171,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -13154,7 +13198,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -13181,7 +13225,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -13208,7 +13252,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -13235,7 +13279,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -13262,7 +13306,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -13289,7 +13333,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -13316,7 +13360,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -13343,7 +13387,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -13370,7 +13414,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -13397,31 +13441,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="230">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,13 +913,17 @@
   </si>
   <si>
     <t>补仓未平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -929,7 +933,7 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,7 +1252,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1486,7 +1490,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1656,7 +1660,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1769,7 +1773,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -3070,7 +3074,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,7 +3110,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,17 +3422,17 @@
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3448,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3482,7 +3486,7 @@
         <v>0.79494511889182973</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3494,85 +3498,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>0.97484548400000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>0.97710112799999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>0.97533999199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>0.97128279100000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>0.97321309099999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3767,35 +3771,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="67" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="67" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.75" customWidth="1"/>
-    <col min="17" max="17" width="7.625" customWidth="1"/>
-    <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="6.125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
     <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1">
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3877,7 @@
       </c>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3968,7 +3972,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3995,7 +3999,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -4036,7 +4040,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -4073,7 +4077,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -4115,7 +4119,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4194,7 +4198,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -4270,7 +4274,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -4377,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -4407,7 +4411,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4596,7 +4600,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -4644,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1">
+    <row r="24" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -4675,7 +4679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4718,7 +4722,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>130</v>
@@ -4750,7 +4754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4863,7 +4867,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="24"/>
     </row>
-    <row r="35" spans="1:21" ht="14.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4905,7 +4909,7 @@
       <c r="T35" s="36"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1">
+    <row r="36" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>54</v>
@@ -4944,7 +4948,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="1:21" ht="14.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4976,7 +4980,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="24"/>
     </row>
-    <row r="38" spans="1:21" ht="14.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>41</v>
       </c>
@@ -5005,7 +5009,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" ht="14.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>42</v>
       </c>
@@ -5043,7 +5047,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="24"/>
     </row>
-    <row r="40" spans="1:21" ht="14.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +5083,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>36</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="14.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>34</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>31</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>37</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="14.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>38</v>
@@ -5273,7 +5277,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>39</v>
@@ -5314,7 +5318,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="1:21" ht="14.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -5350,7 +5354,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="24"/>
     </row>
-    <row r="48" spans="1:21" ht="14.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
@@ -5381,7 +5385,7 @@
       <c r="T48" s="36"/>
       <c r="U48" s="24"/>
     </row>
-    <row r="49" spans="1:21" ht="14.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
@@ -5424,7 +5428,7 @@
       <c r="T49" s="36"/>
       <c r="U49" s="24"/>
     </row>
-    <row r="50" spans="1:21" ht="14.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -5455,7 +5459,7 @@
       <c r="T50" s="36"/>
       <c r="U50" s="24"/>
     </row>
-    <row r="51" spans="1:21" ht="14.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5485,7 +5489,7 @@
       <c r="T51" s="36"/>
       <c r="U51" s="24"/>
     </row>
-    <row r="52" spans="1:21" ht="14.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
@@ -5512,7 +5516,7 @@
       <c r="T52" s="36"/>
       <c r="U52" s="24"/>
     </row>
-    <row r="53" spans="1:21" ht="14.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="14.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="14.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -5616,7 +5620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="14.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="14.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="14.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="14.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>47</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
@@ -5750,7 +5754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="14.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="14.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>51</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="14.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>51</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="14.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="14.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="14.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="14.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="14.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>55</v>
@@ -5974,7 +5978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="14.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>47</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="14.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>41</v>
@@ -6110,7 +6114,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="14.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="14.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>18</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="14.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>57</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="14.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>58</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="14.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>18</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15" thickBot="1">
+    <row r="78" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>88</v>
@@ -6399,7 +6403,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="14.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>91</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="14.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>92</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="14.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>93</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="14.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>94</v>
@@ -6637,7 +6641,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="14.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="14.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>96</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="14.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="14.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>95</v>
@@ -6824,7 +6828,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>106</v>
@@ -6876,7 +6880,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="14.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="14.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="14.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="14.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>101</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="14.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>101</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="14.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="14.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>103</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="14.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>104</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="14.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>105</v>
@@ -7292,7 +7296,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="14.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -7340,7 +7344,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="14.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>31</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="14.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="14.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>107</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="14.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>108</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="14.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>109</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="14.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>110</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="14.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>111</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="14.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>113</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="14.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>115</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="14.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>116</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="14.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>118</v>
@@ -7847,7 +7851,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="14.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7902,7 +7906,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="14.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>127</v>
       </c>
@@ -7947,7 +7951,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="14.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>128</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="14.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>129</v>
       </c>
@@ -8037,7 +8041,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="14.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>131</v>
       </c>
@@ -8082,7 +8086,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="14.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>135</v>
       </c>
@@ -8121,7 +8125,7 @@
       <c r="T115" s="53"/>
       <c r="U115" s="24"/>
     </row>
-    <row r="116" spans="1:21" ht="14.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>136</v>
       </c>
@@ -8160,7 +8164,7 @@
       <c r="T116" s="53"/>
       <c r="U116" s="24"/>
     </row>
-    <row r="117" spans="1:21" ht="14.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>132</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="14.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>133</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="15" thickBot="1">
+    <row r="119" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>134</v>
@@ -8303,7 +8307,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="14.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="14.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>137</v>
       </c>
@@ -8396,7 +8400,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="14.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>138</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="14.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>59</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="14.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="14.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>139</v>
       </c>
@@ -8583,7 +8587,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="14.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>140</v>
       </c>
@@ -8628,7 +8632,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="14.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>141</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="14.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>142</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="14.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>143</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="14.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>144</v>
       </c>
@@ -8807,7 +8811,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="14.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>145</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="14.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>145</v>
@@ -8905,7 +8909,7 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="14.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43130</v>
       </c>
@@ -8953,7 +8957,7 @@
         <v>1.8271382919080545</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="14.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>10.098637655776356</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="14.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>146</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>1.5392638249301374</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="14.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>147</v>
       </c>
@@ -9095,7 +9099,7 @@
         <v>13.03266339869281</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="14.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>148</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>1.830217334331711</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="14.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>148</v>
       </c>
@@ -9185,7 +9189,7 @@
         <v>1.8278222097588335</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="14.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>149</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>5.8652915113339326</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="14.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
@@ -9275,7 +9279,7 @@
         <v>10.405516177096636</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="14.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>151</v>
@@ -9327,7 +9331,7 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="14.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
@@ -9375,7 +9379,7 @@
         <v>19.481689439225732</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="14.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>155</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>22.333308121827415</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="14.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>156</v>
       </c>
@@ -9465,7 +9469,7 @@
         <v>26.703671891699322</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="14.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>157</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>15.951269310829813</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="14.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>158</v>
       </c>
@@ -9555,7 +9559,7 @@
         <v>16.109544487717194</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="14.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>159</v>
       </c>
@@ -9607,7 +9611,7 @@
         <v>10.481828122989837</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="14.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>152</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>4.7576763990267636</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="14.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>153</v>
       </c>
@@ -9697,7 +9701,7 @@
         <v>13.295909256683668</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="14.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>160</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>0.75932176141658903</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="14.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>161</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>14.271405907172996</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="14.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>162</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>0.950857036340649</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="14.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>163</v>
       </c>
@@ -9875,7 +9879,7 @@
         <v>3.8088335532516493</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="14.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>160</v>
       </c>
@@ -9919,7 +9923,7 @@
         <v>0.7602076821398025</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="14.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>164</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>3.7511632903621859</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="14.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>165</v>
       </c>
@@ -10009,7 +10013,7 @@
         <v>8.289624463459111</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="14.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>166</v>
@@ -10062,7 +10066,7 @@
         <v>8.7877809450436573</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="14.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43132</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>15.894944220204057</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="14.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
         <v>14</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>17.383604775209552</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="14.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>167</v>
       </c>
@@ -10207,7 +10211,7 @@
         <v>13.746963744099627</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="14.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>168</v>
       </c>
@@ -10252,7 +10256,7 @@
         <v>3.3788825475191313</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="14.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>169</v>
       </c>
@@ -10297,7 +10301,7 @@
         <v>10.445554487179487</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="14.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>170</v>
       </c>
@@ -10342,7 +10346,7 @@
         <v>2.5716160714168299</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="14.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>171</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>9.3683468678883717</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="14.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>172</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>0.95865884429337167</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="14.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>0.96809252422377834</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="14.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>173</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>0.96502126339537508</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="14.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>174</v>
@@ -10578,7 +10582,7 @@
         <v>5.5458713713713719</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="14.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43133</v>
       </c>
@@ -10626,7 +10630,7 @@
         <v>8.2378377082118099</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="14.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>176</v>
       </c>
@@ -10671,7 +10675,7 @@
         <v>11.161012557077626</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="14.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -10739,7 +10743,7 @@
         <v>21.735132999871748</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="14.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>179</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>1.3392138667311257</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="14.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
         <v>180</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>3.7589580930411381</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="14.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>175</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>8.0530737502375977</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="14.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>181</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>21.104470900788709</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="14.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>183</v>
       </c>
@@ -10977,7 +10981,7 @@
         <v>18.034571496229827</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="14.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>184</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>9.9209071537290718</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="14.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>185</v>
       </c>
@@ -11067,7 +11071,7 @@
         <v>13.693354341736693</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="14.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>186</v>
       </c>
@@ -11112,7 +11116,7 @@
         <v>15.999347813150848</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="14.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>3.7305620421245425</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="14.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>188</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>14.43640900701366</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="14.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
@@ -11247,7 +11251,7 @@
         <v>9.9174287609238458</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="14.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>225</v>
       </c>
@@ -11314,7 +11318,7 @@
         <v>6.6998942731277538</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="14.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>185</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>13.681044877561218</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="14.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>204</v>
       </c>
@@ -11404,7 +11408,7 @@
         <v>18.082838503572933</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="14.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>205</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>26.671644972720188</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="14.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>184</v>
       </c>
@@ -11491,7 +11495,7 @@
         <v>10.695334896077512</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="14.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>206</v>
@@ -11543,7 +11547,7 @@
         <v>0.65961827287352748</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="14.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43136</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>20.113539826422375</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="14.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>208</v>
       </c>
@@ -11636,7 +11640,7 @@
         <v>9.3683717810516232</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="14.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
         <v>209</v>
       </c>
@@ -11686,7 +11690,7 @@
         <v>4.254753073436083</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="14.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>210</v>
       </c>
@@ -11709,7 +11713,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I192" s="34">
-        <f t="shared" ref="I192:I198" si="90">G192*H192</f>
+        <f t="shared" ref="I192:I199" si="90">G192*H192</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M192" s="30" t="str">
@@ -11731,7 +11735,7 @@
         <v>27.657903818953322</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="14.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>211</v>
       </c>
@@ -11776,7 +11780,7 @@
         <v>14.315545184168382</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="14.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>212</v>
       </c>
@@ -11832,7 +11836,7 @@
         <v>20.448012249775921</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="14.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>213</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>20.113552169720347</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="14.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>214</v>
       </c>
@@ -11937,7 +11941,7 @@
         <v>1.2333110059918007</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="14.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>215</v>
       </c>
@@ -11993,7 +11997,7 @@
         <v>30.692177777777776</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="14.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>216</v>
@@ -12053,1036 +12057,1063 @@
         <v>27.17913191811979</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="14.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2768</v>
+      </c>
+      <c r="G199" s="31">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H199" s="67">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I199" s="31">
+        <f t="shared" si="90"/>
+        <v>5.6666666666666671E-3</v>
+      </c>
       <c r="M199" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="S199" s="11"/>
-      <c r="T199" s="53"/>
-      <c r="U199" s="24"/>
-    </row>
-    <row r="200" spans="1:21">
+      <c r="S199" s="11">
+        <f>[1]!WSD($B199,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="T199" s="53">
+        <v>9777076</v>
+      </c>
+      <c r="U199" s="24">
+        <f>T199*I199/(D199*S199*0.15)</f>
+        <v>13.343793513166345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M200" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M201" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M202" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M203" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M204" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M205" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M206" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M207" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M208" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="13:13">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M209" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="13:13">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M210" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="13:13">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M211" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="13:13">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M212" s="30" t="str">
         <f t="shared" ref="M212:M275" si="93">IF(J212="","",C212*(J212-D212)*S212)</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="13:13">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M213" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="13:13">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M214" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="13:13">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M215" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="13:13">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M216" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="13:13">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M217" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="13:13">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M218" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="13:13">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M219" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="13:13">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M220" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="13:13">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M221" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="13:13">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M222" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="13:13">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M223" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="13:13">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M224" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="13:13">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M225" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="13:13">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M226" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="13:13">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M227" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="13:13">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M228" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="13:13">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M229" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="13:13">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M230" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="13:13">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M231" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="13:13">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M232" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="13:13">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M233" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="13:13">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M234" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="13:13">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M235" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="13:13">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M236" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="13:13">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M237" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="13:13">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M238" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="13:13">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M239" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="13:13">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M240" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="13:13">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M241" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="13:13">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M242" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="13:13">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M243" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="13:13">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M244" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="13:13">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M245" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="13:13">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M246" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="13:13">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M247" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="13:13">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M248" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="13:13">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M249" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="13:13">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M250" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="13:13">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M251" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="13:13">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M252" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="13:13">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M253" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="13:13">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M254" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="13:13">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M255" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="13:13">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M256" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="13:13">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M257" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="13:13">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M258" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="13:13">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M259" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="13:13">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M260" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="13:13">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M261" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="13:13">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M262" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="13:13">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M263" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="13:13">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M264" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="13:13">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M265" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="13:13">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M266" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="13:13">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M267" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="13:13">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M268" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="13:13">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M269" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="13:13">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M270" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="13:13">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M271" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="13:13">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M272" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="13:13">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M273" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="13:13">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M274" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="13:13">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M275" s="30" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="13:13">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M276" s="30" t="str">
         <f t="shared" ref="M276:M339" si="94">IF(J276="","",C276*(J276-D276)*S276)</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="13:13">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M277" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="13:13">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M278" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="13:13">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M279" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="13:13">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M280" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="13:13">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M281" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="13:13">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M282" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="13:13">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M283" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="13:13">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M284" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="13:13">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M285" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="13:13">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M286" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="13:13">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M287" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="13:13">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M288" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="13:13">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M289" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="13:13">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M290" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="13:13">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M291" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="13:13">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M292" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="13:13">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M293" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="13:13">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M294" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="13:13">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M295" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="13:13">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M296" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="13:13">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M297" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="13:13">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M298" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="13:13">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M299" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="13:13">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M300" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="13:13">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M301" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="13:13">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M302" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="13:13">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M303" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="13:13">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M304" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="13:13">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M305" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="13:13">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M306" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="13:13">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M307" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="13:13">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M308" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="13:13">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M309" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="13:13">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M310" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="13:13">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M311" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="13:13">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M312" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="13:13">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M313" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="13:13">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M314" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="13:13">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M315" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="13:13">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M316" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="13:13">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M317" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="13:13">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M318" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="13:13">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M319" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="13:13">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M320" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="13:13">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M321" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="13:13">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M322" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="13:13">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M323" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="13:13">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M324" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="13:13">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M325" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="13:13">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M326" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="13:13">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M327" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="13:13">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M328" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="13:13">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M329" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="13:13">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M330" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="13:13">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M331" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="13:13">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M332" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="13:13">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M333" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="13:13">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M334" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="13:13">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M335" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="13:13">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M336" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="13:13">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M337" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="13:13">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M338" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="13:13">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M339" s="30" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="13:13">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M340" s="30" t="str">
         <f t="shared" ref="M340:M370" si="95">IF(J340="","",C340*(J340-D340)*S340)</f>
         <v/>
       </c>
     </row>
-    <row r="341" spans="13:13">
+    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M341" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="13:13">
+    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M342" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="13:13">
+    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M343" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="13:13">
+    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M344" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="13:13">
+    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M345" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="13:13">
+    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M346" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="13:13">
+    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M347" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="13:13">
+    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M348" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="13:13">
+    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M349" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="13:13">
+    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M350" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="13:13">
+    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M351" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="13:13">
+    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M352" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="13:13">
+    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M353" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="13:13">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M354" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="13:13">
+    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M355" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="13:13">
+    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M356" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="13:13">
+    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M357" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="13:13">
+    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M358" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="13:13">
+    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M359" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="13:13">
+    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M360" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="13:13">
+    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M361" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="13:13">
+    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M362" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="13:13">
+    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M363" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="13:13">
+    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M364" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="13:13">
+    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M365" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="13:13">
+    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M366" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="13:13">
+    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M367" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="13:13">
+    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M368" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="13:13">
+    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M369" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="13:13">
+    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M370" s="30" t="str">
         <f t="shared" si="95"/>
         <v/>
@@ -13105,13 +13136,13 @@
       <selection pane="bottomLeft" activeCell="A41" sqref="A41:K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -13146,7 +13177,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
@@ -13181,7 +13212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>190</v>
       </c>
@@ -13216,7 +13247,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>189</v>
       </c>
@@ -13251,7 +13282,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>189</v>
       </c>
@@ -13286,7 +13317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>189</v>
       </c>
@@ -13321,7 +13352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>189</v>
       </c>
@@ -13356,7 +13387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>191</v>
       </c>
@@ -13391,7 +13422,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>62</v>
       </c>
@@ -13426,7 +13457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -13461,7 +13492,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>177</v>
       </c>
@@ -13496,7 +13527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>65</v>
       </c>
@@ -13531,7 +13562,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
@@ -13566,7 +13597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>64</v>
       </c>
@@ -13601,7 +13632,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>187</v>
       </c>
@@ -13636,7 +13667,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>119</v>
       </c>
@@ -13671,7 +13702,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>182</v>
       </c>
@@ -13706,7 +13737,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>190</v>
       </c>
@@ -13741,7 +13772,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>79</v>
       </c>
@@ -13776,7 +13807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -13812,7 +13843,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>60</v>
       </c>
@@ -13847,7 +13878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
@@ -13882,7 +13913,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>78</v>
       </c>
@@ -13917,7 +13948,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>177</v>
       </c>
@@ -13952,7 +13983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>189</v>
       </c>
@@ -13987,7 +14018,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>177</v>
       </c>
@@ -14022,7 +14053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>192</v>
       </c>
@@ -14057,7 +14088,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>182</v>
       </c>
@@ -14092,7 +14123,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>192</v>
       </c>
@@ -14127,7 +14158,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>66</v>
       </c>
@@ -14162,7 +14193,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>190</v>
       </c>
@@ -14197,7 +14228,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>193</v>
       </c>
@@ -14232,7 +14263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>193</v>
       </c>
@@ -14267,7 +14298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>77</v>
       </c>
@@ -14302,7 +14333,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>77</v>
       </c>
@@ -14337,7 +14368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>68</v>
       </c>
@@ -14372,7 +14403,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>194</v>
       </c>
@@ -14407,7 +14438,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>193</v>
       </c>
@@ -14442,7 +14473,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>66</v>
       </c>
@@ -14477,7 +14508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>184</v>
       </c>
@@ -14512,7 +14543,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>74</v>
       </c>
@@ -14547,7 +14578,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>72</v>
       </c>
@@ -14582,7 +14613,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>60</v>
       </c>
@@ -14617,7 +14648,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>77</v>
       </c>
@@ -14652,7 +14683,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>119</v>
       </c>
@@ -14687,7 +14718,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>70</v>
       </c>
@@ -14722,7 +14753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>62</v>
       </c>
@@ -14757,7 +14788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -14792,7 +14823,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>67</v>
       </c>
@@ -14827,7 +14858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -14862,7 +14893,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>112</v>
       </c>
@@ -14897,7 +14928,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>76</v>
       </c>
@@ -14932,7 +14963,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>74</v>
       </c>
@@ -14967,7 +14998,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -15002,7 +15033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -15037,7 +15068,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>76</v>
       </c>
@@ -15072,7 +15103,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>177</v>
       </c>
@@ -15107,7 +15138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>64</v>
       </c>
@@ -15142,7 +15173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>67</v>
       </c>
@@ -15177,7 +15208,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>70</v>
       </c>
@@ -15212,7 +15243,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>74</v>
       </c>
@@ -15247,7 +15278,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>76</v>
       </c>
@@ -15282,7 +15313,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>70</v>
       </c>
@@ -15317,7 +15348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>62</v>
       </c>
@@ -15352,7 +15383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>79</v>
       </c>
@@ -15387,7 +15418,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>66</v>
       </c>
@@ -15422,7 +15453,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>69</v>
       </c>
@@ -15457,7 +15488,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>62</v>
       </c>
@@ -15492,7 +15523,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>191</v>
       </c>
@@ -15527,7 +15558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>189</v>
       </c>
@@ -15562,7 +15593,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>62</v>
       </c>
@@ -15597,7 +15628,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>112</v>
       </c>
@@ -15632,7 +15663,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>66</v>
       </c>
@@ -15667,7 +15698,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>187</v>
       </c>
@@ -15702,7 +15733,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>191</v>
       </c>
@@ -15737,7 +15768,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -15772,7 +15803,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>68</v>
       </c>
@@ -15807,7 +15838,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>177</v>
       </c>
@@ -15842,7 +15873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>182</v>
       </c>
@@ -15877,7 +15908,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>68</v>
       </c>
@@ -15912,7 +15943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>190</v>
       </c>
@@ -15967,17 +15998,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16002,7 +16033,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -16025,7 +16056,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -16045,7 +16076,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -16065,7 +16096,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -16088,7 +16119,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -16111,7 +16142,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -16131,7 +16162,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -16151,7 +16182,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -16174,7 +16205,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -16197,7 +16228,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -16217,7 +16248,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
@@ -16237,7 +16268,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
@@ -16257,7 +16288,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>29</v>
@@ -16295,15 +16326,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -16335,7 +16366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -16365,7 +16396,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -16395,7 +16426,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -16425,7 +16456,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -16455,7 +16486,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -16485,7 +16516,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -16515,7 +16546,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -16545,7 +16576,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -16575,7 +16606,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -16605,7 +16636,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -16635,7 +16666,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -16665,7 +16696,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -16692,7 +16723,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -16719,7 +16750,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -16746,7 +16777,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -16773,7 +16804,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -16800,7 +16831,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -16827,7 +16858,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -16854,7 +16885,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -16881,7 +16912,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -16908,7 +16939,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -16935,7 +16966,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -16962,7 +16993,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -16989,7 +17020,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -17016,7 +17047,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -17043,7 +17074,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -17070,7 +17101,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -17097,7 +17128,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -17124,7 +17155,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -17151,7 +17182,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -17178,7 +17209,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -17205,7 +17236,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -17232,7 +17263,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -17259,7 +17290,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -17286,7 +17317,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -17313,7 +17344,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -17340,7 +17371,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -17367,7 +17398,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -17394,7 +17425,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -17421,7 +17452,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -17448,7 +17479,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -17475,7 +17506,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -17502,7 +17533,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -17529,7 +17560,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -17556,31 +17587,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="236">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,13 +917,37 @@
   </si>
   <si>
     <t>M1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/2（补仓2.6，价格同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00:00（补仓14:08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -933,7 +957,7 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,7 +1276,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1490,7 +1514,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1505,11 +1529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="560821040"/>
-        <c:axId val="560821600"/>
+        <c:axId val="293054192"/>
+        <c:axId val="293054752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560821040"/>
+        <c:axId val="293054192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,14 +1576,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560821600"/>
+        <c:crossAx val="293054752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560821600"/>
+        <c:axId val="293054752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560821040"/>
+        <c:crossAx val="293054192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,7 +1684,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1773,7 +1797,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -1788,11 +1812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="560823840"/>
-        <c:axId val="560824400"/>
+        <c:axId val="292581760"/>
+        <c:axId val="292582320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560823840"/>
+        <c:axId val="292581760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,14 +1859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560824400"/>
+        <c:crossAx val="292582320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560824400"/>
+        <c:axId val="292582320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560823840"/>
+        <c:crossAx val="292581760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3074,7 +3098,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3134,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3422,17 +3446,17 @@
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" customWidth="1"/>
+    <col min="8" max="9" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3472,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3464,10 +3488,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!V1/成交记录!U1</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.25274725274725274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3483,10 +3507,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!X1/成交记录!Y1</f>
-        <v>0.79494511889182973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.76957448915635462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3498,85 +3522,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3588,7 +3612,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3600,7 +3624,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3612,7 +3636,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3624,7 +3648,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3636,7 +3660,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3648,7 +3672,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3660,7 +3684,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3672,7 +3696,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3684,7 +3708,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3696,7 +3720,7 @@
         <v>0.97484548400000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3708,7 +3732,7 @@
         <v>0.97710112799999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>0.97533999199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>0.97128279100000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
@@ -3744,7 +3768,7 @@
         <v>0.97321309099999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3770,36 +3794,36 @@
   <dimension ref="A1:Z370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="67" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="17" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="5.75" customWidth="1"/>
+    <col min="19" max="19" width="6.125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="8.625" customWidth="1"/>
     <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3857,27 +3881,27 @@
       <c r="T1" s="13"/>
       <c r="U1" s="10">
         <f>COUNT(M2:M9987)</f>
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="V1" s="13">
         <f>COUNTIF(M2:M9987,"&gt;0")</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W1" s="13">
         <f>COUNTIF(M2:M9987,"&lt;0")</f>
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="X1" s="13">
         <f>SUMIF(M2:M9987,"&gt;0")</f>
-        <v>601841.54999999993</v>
+        <v>616841.54999999993</v>
       </c>
       <c r="Y1" s="13">
         <f>ABS(SUMIF(M2:M9987,"&lt;0"))</f>
-        <v>757085.66000000073</v>
+        <v>801535.86000000068</v>
       </c>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3931,7 +3955,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3972,7 +3996,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3999,7 +4023,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -4040,7 +4064,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -4077,7 +4101,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -4119,7 +4143,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -4161,7 +4185,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4198,7 +4222,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4233,7 +4257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -4274,7 +4298,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -4317,7 +4341,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4354,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -4381,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -4411,7 +4435,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4437,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14.25">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4474,7 +4498,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4498,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="14.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4538,7 +4562,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="14.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4578,7 +4602,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="14.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4600,7 +4624,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="14.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4629,7 +4653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="14.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -4648,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -4679,7 +4703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="14.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4688,7 +4712,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="14.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4722,7 +4746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="14.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>130</v>
@@ -4754,7 +4778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="14.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4763,7 +4787,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="14.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4772,7 +4796,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4781,7 +4805,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="14.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4790,7 +4814,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="14.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4799,7 +4823,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="14.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4836,7 +4860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="14.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4867,7 +4891,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="24"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="14.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4909,7 +4933,7 @@
       <c r="T35" s="36"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15" thickBot="1">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>54</v>
@@ -4948,7 +4972,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="14.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -4980,7 +5004,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="24"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="14.25">
       <c r="B38" s="37" t="s">
         <v>41</v>
       </c>
@@ -5009,7 +5033,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="14.25">
       <c r="B39" s="28" t="s">
         <v>42</v>
       </c>
@@ -5047,7 +5071,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="24"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="14.25">
       <c r="B40" s="37" t="s">
         <v>35</v>
       </c>
@@ -5083,7 +5107,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="14.25">
       <c r="B41" s="37" t="s">
         <v>36</v>
       </c>
@@ -5119,7 +5143,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="14.25">
       <c r="B42" s="37" t="s">
         <v>34</v>
       </c>
@@ -5159,7 +5183,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="14.25">
       <c r="B43" s="37" t="s">
         <v>31</v>
       </c>
@@ -5195,7 +5219,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="14.25">
       <c r="B44" s="37" t="s">
         <v>37</v>
       </c>
@@ -5231,7 +5255,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="14.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>38</v>
@@ -5277,7 +5301,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>39</v>
@@ -5318,7 +5342,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="14.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -5354,7 +5378,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="24"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="14.25">
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
@@ -5385,7 +5409,7 @@
       <c r="T48" s="36"/>
       <c r="U48" s="24"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
@@ -5428,7 +5452,7 @@
       <c r="T49" s="36"/>
       <c r="U49" s="24"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="14.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -5459,7 +5483,7 @@
       <c r="T50" s="36"/>
       <c r="U50" s="24"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="14.25">
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5489,7 +5513,7 @@
       <c r="T51" s="36"/>
       <c r="U51" s="24"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="14.25">
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
@@ -5516,7 +5540,7 @@
       <c r="T52" s="36"/>
       <c r="U52" s="24"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.25">
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
@@ -5541,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="14.25">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -5566,7 +5590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="14.25">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -5594,7 +5618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="14.25">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -5620,7 +5644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="14.25">
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
@@ -5645,7 +5669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="14.25">
       <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
@@ -5671,7 +5695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="14.25">
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
@@ -5697,7 +5721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="14.25">
       <c r="B60" s="1" t="s">
         <v>47</v>
       </c>
@@ -5726,7 +5750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="14.25">
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
@@ -5754,7 +5778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="14.25">
       <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
@@ -5783,7 +5807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="14.25">
       <c r="B63" s="1" t="s">
         <v>51</v>
       </c>
@@ -5809,7 +5833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="14.25">
       <c r="B64" s="1" t="s">
         <v>51</v>
       </c>
@@ -5837,7 +5861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="14.25">
       <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
@@ -5862,7 +5886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="14.25">
       <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
@@ -5889,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="14.25">
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
@@ -5915,7 +5939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="14.25">
       <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
@@ -5940,7 +5964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="14.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>55</v>
@@ -5978,7 +6002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="14.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -6025,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="14.25">
       <c r="B71" s="1" t="s">
         <v>47</v>
       </c>
@@ -6062,7 +6086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="14.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>41</v>
@@ -6114,7 +6138,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="14.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -6161,7 +6185,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="14.25">
       <c r="B74" s="3" t="s">
         <v>18</v>
       </c>
@@ -6212,7 +6236,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="14.25">
       <c r="B75" s="1" t="s">
         <v>57</v>
       </c>
@@ -6256,7 +6280,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="14.25">
       <c r="B76" s="1" t="s">
         <v>58</v>
       </c>
@@ -6300,7 +6324,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="14.25">
       <c r="B77" s="24" t="s">
         <v>18</v>
       </c>
@@ -6351,7 +6375,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="15" thickBot="1">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>88</v>
@@ -6403,7 +6427,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="14.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -6450,7 +6474,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="14.25">
       <c r="B80" s="1" t="s">
         <v>91</v>
       </c>
@@ -6494,7 +6518,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="14.25">
       <c r="B81" s="24" t="s">
         <v>92</v>
       </c>
@@ -6545,7 +6569,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="14.25">
       <c r="B82" s="24" t="s">
         <v>93</v>
       </c>
@@ -6589,7 +6613,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="14.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>94</v>
@@ -6641,7 +6665,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="14.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6688,7 +6712,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="14.25">
       <c r="B85" s="1" t="s">
         <v>96</v>
       </c>
@@ -6732,7 +6756,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="14.25">
       <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
@@ -6776,7 +6800,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="14.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>95</v>
@@ -6828,7 +6852,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="14.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>106</v>
@@ -6880,7 +6904,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="14.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6934,7 +6958,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="14.25">
       <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
@@ -6979,7 +7003,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="14.25">
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
@@ -7024,7 +7048,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.25">
       <c r="B92" s="1" t="s">
         <v>101</v>
       </c>
@@ -7068,7 +7092,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.25">
       <c r="B93" s="1" t="s">
         <v>101</v>
       </c>
@@ -7112,7 +7136,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.25">
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
@@ -7156,7 +7180,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.25">
       <c r="B95" s="1" t="s">
         <v>103</v>
       </c>
@@ -7200,7 +7224,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.25">
       <c r="B96" s="1" t="s">
         <v>104</v>
       </c>
@@ -7244,7 +7268,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="14.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>105</v>
@@ -7296,7 +7320,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="14.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -7344,7 +7368,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="14.25">
       <c r="B99" s="1" t="s">
         <v>31</v>
       </c>
@@ -7389,7 +7413,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="14.25">
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
@@ -7441,7 +7465,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="14.25">
       <c r="B101" s="1" t="s">
         <v>107</v>
       </c>
@@ -7486,7 +7510,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="14.25">
       <c r="B102" s="1" t="s">
         <v>108</v>
       </c>
@@ -7531,7 +7555,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="14.25">
       <c r="B103" s="1" t="s">
         <v>109</v>
       </c>
@@ -7576,7 +7600,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="14.25">
       <c r="B104" s="1" t="s">
         <v>110</v>
       </c>
@@ -7621,7 +7645,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="14.25">
       <c r="B105" s="1" t="s">
         <v>111</v>
       </c>
@@ -7665,7 +7689,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="14.25">
       <c r="B106" s="1" t="s">
         <v>113</v>
       </c>
@@ -7710,7 +7734,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="14.25">
       <c r="B107" s="1" t="s">
         <v>115</v>
       </c>
@@ -7755,7 +7779,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="14.25">
       <c r="B108" s="1" t="s">
         <v>116</v>
       </c>
@@ -7799,7 +7823,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="14.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>118</v>
@@ -7851,7 +7875,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="14.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7906,7 +7930,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="14.25">
       <c r="B111" s="1" t="s">
         <v>127</v>
       </c>
@@ -7951,7 +7975,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="14.25">
       <c r="B112" s="1" t="s">
         <v>128</v>
       </c>
@@ -7996,7 +8020,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="14.25">
       <c r="B113" s="1" t="s">
         <v>129</v>
       </c>
@@ -8041,7 +8065,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="14.25">
       <c r="B114" s="1" t="s">
         <v>131</v>
       </c>
@@ -8086,7 +8110,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="14.25">
       <c r="B115" s="1" t="s">
         <v>135</v>
       </c>
@@ -8125,7 +8149,7 @@
       <c r="T115" s="53"/>
       <c r="U115" s="24"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="14.25">
       <c r="B116" s="1" t="s">
         <v>136</v>
       </c>
@@ -8164,7 +8188,7 @@
       <c r="T116" s="53"/>
       <c r="U116" s="24"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="14.25">
       <c r="B117" s="1" t="s">
         <v>132</v>
       </c>
@@ -8209,7 +8233,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="14.25">
       <c r="B118" s="1" t="s">
         <v>133</v>
       </c>
@@ -8254,7 +8278,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="15" thickBot="1">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>134</v>
@@ -8307,7 +8331,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="14.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -8355,7 +8379,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="14.25">
       <c r="B121" s="1" t="s">
         <v>137</v>
       </c>
@@ -8400,7 +8424,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="14.25">
       <c r="B122" s="1" t="s">
         <v>138</v>
       </c>
@@ -8445,7 +8469,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="14.25">
       <c r="B123" s="1" t="s">
         <v>59</v>
       </c>
@@ -8490,7 +8514,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="14.25">
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
@@ -8542,7 +8566,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="14.25">
       <c r="B125" s="1" t="s">
         <v>139</v>
       </c>
@@ -8587,7 +8611,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="14.25">
       <c r="B126" s="1" t="s">
         <v>140</v>
       </c>
@@ -8632,7 +8656,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="14.25">
       <c r="B127" s="1" t="s">
         <v>141</v>
       </c>
@@ -8677,7 +8701,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="14.25">
       <c r="B128" s="1" t="s">
         <v>142</v>
       </c>
@@ -8722,7 +8746,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="14.25">
       <c r="B129" s="1" t="s">
         <v>143</v>
       </c>
@@ -8767,7 +8791,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="14.25">
       <c r="B130" s="1" t="s">
         <v>144</v>
       </c>
@@ -8811,7 +8835,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="14.25">
       <c r="B131" s="1" t="s">
         <v>145</v>
       </c>
@@ -8856,7 +8880,7 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="14.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>145</v>
@@ -8909,7 +8933,7 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="14.25">
       <c r="A133" s="2">
         <v>43130</v>
       </c>
@@ -8957,7 +8981,7 @@
         <v>1.8271382919080545</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="14.25">
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
@@ -9002,7 +9026,7 @@
         <v>10.098637655776356</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="14.25">
       <c r="B135" s="3" t="s">
         <v>146</v>
       </c>
@@ -9054,7 +9078,7 @@
         <v>1.5392638249301374</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="14.25">
       <c r="B136" s="1" t="s">
         <v>147</v>
       </c>
@@ -9099,7 +9123,7 @@
         <v>13.03266339869281</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="14.25">
       <c r="B137" s="1" t="s">
         <v>148</v>
       </c>
@@ -9144,7 +9168,7 @@
         <v>1.830217334331711</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="14.25">
       <c r="B138" s="1" t="s">
         <v>148</v>
       </c>
@@ -9189,7 +9213,7 @@
         <v>1.8278222097588335</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="14.25">
       <c r="B139" s="1" t="s">
         <v>149</v>
       </c>
@@ -9234,7 +9258,7 @@
         <v>5.8652915113339326</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="14.25">
       <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
@@ -9279,7 +9303,7 @@
         <v>10.405516177096636</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="14.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>151</v>
@@ -9331,7 +9355,7 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="14.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
@@ -9379,7 +9403,7 @@
         <v>19.481689439225732</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="14.25">
       <c r="B143" s="1" t="s">
         <v>155</v>
       </c>
@@ -9424,7 +9448,7 @@
         <v>22.333308121827415</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="14.25">
       <c r="B144" s="1" t="s">
         <v>156</v>
       </c>
@@ -9469,7 +9493,7 @@
         <v>26.703671891699322</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.25">
       <c r="B145" s="1" t="s">
         <v>157</v>
       </c>
@@ -9514,7 +9538,7 @@
         <v>15.951269310829813</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.25">
       <c r="B146" s="1" t="s">
         <v>158</v>
       </c>
@@ -9559,7 +9583,7 @@
         <v>16.109544487717194</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="14.25">
       <c r="B147" s="3" t="s">
         <v>159</v>
       </c>
@@ -9611,7 +9635,7 @@
         <v>10.481828122989837</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="14.25">
       <c r="B148" s="1" t="s">
         <v>152</v>
       </c>
@@ -9656,7 +9680,7 @@
         <v>4.7576763990267636</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="14.25">
       <c r="B149" s="1" t="s">
         <v>153</v>
       </c>
@@ -9701,7 +9725,7 @@
         <v>13.295909256683668</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="14.25">
       <c r="B150" s="1" t="s">
         <v>160</v>
       </c>
@@ -9745,7 +9769,7 @@
         <v>0.75932176141658903</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="14.25">
       <c r="B151" s="1" t="s">
         <v>161</v>
       </c>
@@ -9790,7 +9814,7 @@
         <v>14.271405907172996</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="14.25">
       <c r="B152" s="1" t="s">
         <v>162</v>
       </c>
@@ -9834,7 +9858,7 @@
         <v>0.950857036340649</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="14.25">
       <c r="B153" s="1" t="s">
         <v>163</v>
       </c>
@@ -9879,7 +9903,7 @@
         <v>3.8088335532516493</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="14.25">
       <c r="B154" s="1" t="s">
         <v>160</v>
       </c>
@@ -9923,7 +9947,7 @@
         <v>0.7602076821398025</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="14.25">
       <c r="B155" s="1" t="s">
         <v>164</v>
       </c>
@@ -9968,7 +9992,7 @@
         <v>3.7511632903621859</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="14.25">
       <c r="B156" s="1" t="s">
         <v>165</v>
       </c>
@@ -10013,7 +10037,7 @@
         <v>8.289624463459111</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="14.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>166</v>
@@ -10066,7 +10090,7 @@
         <v>8.7877809450436573</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="14.25">
       <c r="A158" s="2">
         <v>43132</v>
       </c>
@@ -10114,7 +10138,7 @@
         <v>15.894944220204057</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="14.25">
       <c r="B159" s="3" t="s">
         <v>14</v>
       </c>
@@ -10166,7 +10190,7 @@
         <v>17.383604775209552</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="14.25">
       <c r="B160" s="1" t="s">
         <v>167</v>
       </c>
@@ -10211,7 +10235,7 @@
         <v>13.746963744099627</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="14.25">
       <c r="B161" s="1" t="s">
         <v>168</v>
       </c>
@@ -10256,7 +10280,7 @@
         <v>3.3788825475191313</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="14.25">
       <c r="B162" s="1" t="s">
         <v>169</v>
       </c>
@@ -10301,7 +10325,7 @@
         <v>10.445554487179487</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="14.25">
       <c r="B163" s="1" t="s">
         <v>170</v>
       </c>
@@ -10346,7 +10370,7 @@
         <v>2.5716160714168299</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="14.25">
       <c r="B164" s="1" t="s">
         <v>171</v>
       </c>
@@ -10391,7 +10415,7 @@
         <v>9.3683468678883717</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="14.25">
       <c r="B165" s="1" t="s">
         <v>172</v>
       </c>
@@ -10441,7 +10465,7 @@
         <v>0.95865884429337167</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="14.25">
       <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
@@ -10485,7 +10509,7 @@
         <v>0.96809252422377834</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="14.25">
       <c r="B167" s="1" t="s">
         <v>173</v>
       </c>
@@ -10529,7 +10553,7 @@
         <v>0.96502126339537508</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="14.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>174</v>
@@ -10582,7 +10606,7 @@
         <v>5.5458713713713719</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="14.25">
       <c r="A169" s="2">
         <v>43133</v>
       </c>
@@ -10630,7 +10654,7 @@
         <v>8.2378377082118099</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="14.25">
       <c r="B170" s="1" t="s">
         <v>176</v>
       </c>
@@ -10675,7 +10699,7 @@
         <v>11.161012557077626</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="14.25">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -10743,7 +10767,7 @@
         <v>21.735132999871748</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="14.25">
       <c r="B172" s="1" t="s">
         <v>179</v>
       </c>
@@ -10788,7 +10812,7 @@
         <v>1.3392138667311257</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="14.25">
       <c r="B173" s="3" t="s">
         <v>180</v>
       </c>
@@ -10840,7 +10864,7 @@
         <v>3.7589580930411381</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="14.25">
       <c r="B174" s="1" t="s">
         <v>175</v>
       </c>
@@ -10885,7 +10909,7 @@
         <v>8.0530737502375977</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="14.25">
       <c r="B175" s="1" t="s">
         <v>181</v>
       </c>
@@ -10930,7 +10954,7 @@
         <v>21.104470900788709</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="14.25">
       <c r="B176" s="1" t="s">
         <v>183</v>
       </c>
@@ -10981,7 +11005,7 @@
         <v>18.034571496229827</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" ht="14.25">
       <c r="B177" s="1" t="s">
         <v>184</v>
       </c>
@@ -11026,7 +11050,7 @@
         <v>9.9209071537290718</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" ht="14.25">
       <c r="B178" s="1" t="s">
         <v>185</v>
       </c>
@@ -11071,7 +11095,7 @@
         <v>13.693354341736693</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="14.25">
       <c r="B179" s="1" t="s">
         <v>186</v>
       </c>
@@ -11116,7 +11140,7 @@
         <v>15.999347813150848</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" ht="14.25">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
@@ -11161,7 +11185,7 @@
         <v>3.7305620421245425</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" ht="14.25">
       <c r="B181" s="1" t="s">
         <v>188</v>
       </c>
@@ -11206,7 +11230,7 @@
         <v>14.43640900701366</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="14.25">
       <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
@@ -11251,7 +11275,7 @@
         <v>9.9174287609238458</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" ht="14.25">
       <c r="A183" s="1" t="s">
         <v>225</v>
       </c>
@@ -11280,11 +11304,11 @@
       <c r="J183" s="1">
         <v>2116.5</v>
       </c>
-      <c r="K183" s="2">
-        <v>43133</v>
-      </c>
-      <c r="L183" s="40">
-        <v>0.625</v>
+      <c r="K183" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L183" s="40" t="s">
+        <v>234</v>
       </c>
       <c r="M183" s="30">
         <f t="shared" si="71"/>
@@ -11318,7 +11342,7 @@
         <v>6.6998942731277538</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" ht="14.25">
       <c r="B184" s="1" t="s">
         <v>185</v>
       </c>
@@ -11363,7 +11387,7 @@
         <v>13.681044877561218</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="14.25">
       <c r="B185" s="1" t="s">
         <v>204</v>
       </c>
@@ -11408,7 +11432,7 @@
         <v>18.082838503572933</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" ht="14.25">
       <c r="B186" s="1" t="s">
         <v>205</v>
       </c>
@@ -11431,9 +11455,18 @@
         <f>G186*1/3</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M186" s="30" t="str">
+      <c r="J186" s="1">
+        <v>5102</v>
+      </c>
+      <c r="K186" s="2">
+        <v>43136</v>
+      </c>
+      <c r="L186" s="40">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="M186" s="30">
         <f t="shared" si="71"/>
-        <v/>
+        <v>2700</v>
       </c>
       <c r="P186" s="62"/>
       <c r="Q186" s="63"/>
@@ -11450,7 +11483,7 @@
         <v>26.671644972720188</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" ht="14.25">
       <c r="B187" s="1" t="s">
         <v>184</v>
       </c>
@@ -11495,7 +11528,7 @@
         <v>10.695334896077512</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" ht="14.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>206</v>
@@ -11547,7 +11580,7 @@
         <v>0.65961827287352748</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" ht="14.25">
       <c r="A189" s="2">
         <v>43136</v>
       </c>
@@ -11595,7 +11628,7 @@
         <v>20.113539826422375</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" ht="14.25">
       <c r="B190" s="1" t="s">
         <v>208</v>
       </c>
@@ -11640,7 +11673,7 @@
         <v>9.3683717810516232</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" ht="14.25">
       <c r="B191" s="3" t="s">
         <v>209</v>
       </c>
@@ -11666,12 +11699,18 @@
         <f>G191*H191</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="28" t="str">
+      <c r="J191" s="3">
+        <v>275.55</v>
+      </c>
+      <c r="K191" s="33">
+        <v>43137</v>
+      </c>
+      <c r="L191" s="45">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="M191" s="28">
         <f t="shared" si="71"/>
-        <v/>
+        <v>399.99999999997726</v>
       </c>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
@@ -11690,7 +11729,7 @@
         <v>4.254753073436083</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="14.25">
       <c r="B192" s="1" t="s">
         <v>210</v>
       </c>
@@ -11713,12 +11752,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I192" s="34">
-        <f t="shared" ref="I192:I199" si="90">G192*H192</f>
+        <f t="shared" ref="I192:I203" si="90">G192*H192</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M192" s="30" t="str">
+      <c r="J192" s="1">
+        <v>2117</v>
+      </c>
+      <c r="K192" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L192" s="40">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="M192" s="30">
         <f t="shared" si="71"/>
-        <v/>
+        <v>-1080</v>
       </c>
       <c r="P192" s="62"/>
       <c r="Q192" s="63"/>
@@ -11735,7 +11783,7 @@
         <v>27.657903818953322</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="14.25">
       <c r="B193" s="1" t="s">
         <v>211</v>
       </c>
@@ -11761,9 +11809,18 @@
         <f t="shared" si="90"/>
         <v>1.6E-2</v>
       </c>
-      <c r="M193" s="30" t="str">
+      <c r="J193" s="1">
+        <v>14400</v>
+      </c>
+      <c r="K193" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L193" s="40">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="M193" s="30">
         <f t="shared" si="71"/>
-        <v/>
+        <v>11900</v>
       </c>
       <c r="P193" s="62"/>
       <c r="Q193" s="63"/>
@@ -11780,7 +11837,7 @@
         <v>14.315545184168382</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" ht="14.25">
       <c r="B194" s="1" t="s">
         <v>212</v>
       </c>
@@ -11806,9 +11863,18 @@
         <f t="shared" si="90"/>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="M194" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+      <c r="J194" s="1">
+        <v>6654</v>
+      </c>
+      <c r="K194" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L194" s="40">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="M194" s="30">
+        <f>IF(J194="","",C194*(J194-D194)*S194)+IF(J194="","",N194*(J194-O194)*S194)</f>
+        <v>-16000</v>
       </c>
       <c r="N194" s="1">
         <f>C194*(1-H194)/H194</f>
@@ -11836,7 +11902,7 @@
         <v>20.448012249775921</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="14.25">
       <c r="B195" s="1" t="s">
         <v>213</v>
       </c>
@@ -11862,12 +11928,21 @@
         <f t="shared" si="90"/>
         <v>1.6E-2</v>
       </c>
-      <c r="M195" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+      <c r="J195" s="1">
+        <v>521.5</v>
+      </c>
+      <c r="K195" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L195" s="40">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="M195" s="30">
+        <f>IF(J195="","",C195*(J195-D195)*S195)+IF(J195="","",N195*(J195-O195)*S195)</f>
+        <v>-4000</v>
       </c>
       <c r="N195" s="1">
-        <f t="shared" ref="N195:N198" si="92">C195*(1-H195)/H195</f>
+        <f t="shared" ref="N195:N202" si="92">C195*(1-H195)/H195</f>
         <v>20</v>
       </c>
       <c r="O195" s="1">
@@ -11892,7 +11967,7 @@
         <v>20.113552169720347</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" ht="14.25">
       <c r="B196" s="1" t="s">
         <v>214</v>
       </c>
@@ -11918,9 +11993,18 @@
         <f t="shared" si="90"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M196" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+      <c r="J196" s="1">
+        <v>3162.8</v>
+      </c>
+      <c r="K196" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L196" s="40">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="M196" s="30">
+        <f t="shared" ref="M195:M203" si="93">IF(J196="","",C196*(J196-D196)*S196)+IF(J196="","",N196*(J196-O196)*S196)</f>
+        <v>-2459.9999999999454</v>
       </c>
       <c r="N196" s="1">
         <f t="shared" si="92"/>
@@ -11941,7 +12025,7 @@
         <v>1.2333110059918007</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" ht="14.25">
       <c r="B197" s="1" t="s">
         <v>215</v>
       </c>
@@ -11967,9 +12051,18 @@
         <f t="shared" si="90"/>
         <v>1.9E-2</v>
       </c>
-      <c r="M197" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+      <c r="J197" s="1">
+        <v>4012.3330000000001</v>
+      </c>
+      <c r="K197" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L197" s="40">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="M197" s="30">
+        <f t="shared" si="93"/>
+        <v>-11200.19999999995</v>
       </c>
       <c r="N197" s="1">
         <f t="shared" si="92"/>
@@ -11997,7 +12090,7 @@
         <v>30.692177777777776</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="14.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>216</v>
@@ -12024,12 +12117,18 @@
         <f t="shared" si="90"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="28" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+      <c r="J198" s="3">
+        <v>3944</v>
+      </c>
+      <c r="K198" s="33">
+        <v>43137</v>
+      </c>
+      <c r="L198" s="45">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="M198" s="28">
+        <f t="shared" si="93"/>
+        <v>-8910</v>
       </c>
       <c r="N198" s="3">
         <f t="shared" si="92"/>
@@ -12057,30 +12156,56 @@
         <v>27.17913191811979</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" ht="14.25">
       <c r="A199" s="2">
         <v>43137</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D199" s="1">
+      <c r="C199" s="3">
+        <v>-13</v>
+      </c>
+      <c r="D199" s="3">
         <v>2768</v>
       </c>
-      <c r="G199" s="31">
+      <c r="E199" s="33">
+        <v>43136</v>
+      </c>
+      <c r="F199" s="45">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="G199" s="32">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H199" s="67">
+      <c r="H199" s="66">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I199" s="31">
+      <c r="I199" s="32">
         <f t="shared" si="90"/>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="M199" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="28" t="e">
+        <f t="shared" si="93"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N199" s="41">
+        <f t="shared" si="92"/>
+        <v>-26.000000000000004</v>
+      </c>
+      <c r="O199" s="3">
+        <v>2763</v>
+      </c>
+      <c r="P199" s="64">
+        <v>43137</v>
+      </c>
+      <c r="Q199" s="65">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="R199" s="4"/>
       <c r="S199" s="11">
         <f>[1]!WSD($B199,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
@@ -12093,1029 +12218,1210 @@
         <v>13.343793513166345</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M200" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M201" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M202" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M203" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" ht="14.25">
+      <c r="B200" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C200" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D200" s="1">
+        <v>52800</v>
+      </c>
+      <c r="E200" s="2">
+        <v>43137</v>
+      </c>
+      <c r="F200" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="G200" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="H200" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I200" s="31">
+        <f t="shared" si="90"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M200" s="30" t="e">
+        <f t="shared" si="93"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N200" s="24">
+        <f t="shared" si="92"/>
+        <v>-4</v>
+      </c>
+      <c r="O200" s="1">
+        <v>52710</v>
+      </c>
+      <c r="P200" s="62">
+        <v>43137</v>
+      </c>
+      <c r="Q200" s="63">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="S200" s="11">
+        <f>[1]!WSD($B200,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="T200" s="53">
+        <v>9777077</v>
+      </c>
+      <c r="U200" s="24">
+        <f t="shared" ref="U200:U202" si="94">T200*I200/(D200*S200*0.15)</f>
+        <v>3.7034382575757574</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" ht="14.25">
+      <c r="B201" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D201" s="1">
+        <v>14430</v>
+      </c>
+      <c r="E201" s="2">
+        <v>43137</v>
+      </c>
+      <c r="F201" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="G201" s="31">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H201" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I201" s="31">
+        <f t="shared" si="90"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="M201" s="30" t="e">
+        <f t="shared" si="93"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N201" s="24">
+        <f t="shared" si="92"/>
+        <v>-15</v>
+      </c>
+      <c r="O201" s="1">
+        <v>14335</v>
+      </c>
+      <c r="P201" s="62">
+        <v>43137</v>
+      </c>
+      <c r="Q201" s="63">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="S201" s="11">
+        <f>[1]!WSD($B201,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="T201" s="53">
+        <v>9777078</v>
+      </c>
+      <c r="U201" s="24">
+        <f t="shared" si="94"/>
+        <v>14.906148024948026</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" ht="14.25">
+      <c r="B202" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C202" s="1">
+        <v>20</v>
+      </c>
+      <c r="D202" s="1">
+        <v>6696</v>
+      </c>
+      <c r="E202" s="2">
+        <v>43137</v>
+      </c>
+      <c r="F202" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="G202" s="31">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H202" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I202" s="31">
+        <f t="shared" si="90"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J202" s="1">
+        <v>6688</v>
+      </c>
+      <c r="K202" s="2">
+        <v>43137</v>
+      </c>
+      <c r="L202" s="40">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="M202" s="30">
+        <f>IF(J202="","",C202*(J202-D202)*S202)+IF(J202="","",N202*(J202-O202)*S202)</f>
+        <v>-800</v>
+      </c>
+      <c r="N202" s="24"/>
+      <c r="S202" s="11">
+        <f>[1]!WSD($B202,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="T202" s="53">
+        <v>9777079</v>
+      </c>
+      <c r="U202" s="24">
+        <f t="shared" si="94"/>
+        <v>20.441921445639188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" ht="14.25">
+      <c r="B203" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C203" s="1">
+        <v>73</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2132</v>
+      </c>
+      <c r="E203" s="2">
+        <v>43137</v>
+      </c>
+      <c r="F203" s="40">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="G203" s="31">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H203" s="67">
+        <v>1</v>
+      </c>
+      <c r="I203" s="31">
+        <f t="shared" si="90"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="M203" s="30" t="e">
+        <f t="shared" si="93"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N203" s="24"/>
+      <c r="S203" s="11">
+        <f>[1]!WSD($B203,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="T203" s="53">
+        <v>9777080</v>
+      </c>
+      <c r="U203" s="24">
+        <f t="shared" ref="U203" si="95">T203*I203/(D203*S203*0.15)</f>
+        <v>73.373958724202637</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
       <c r="M204" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21">
       <c r="M205" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21">
       <c r="M206" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21">
       <c r="M207" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21">
       <c r="M208" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="13:13">
       <c r="M209" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="13:13">
       <c r="M210" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="13:13">
       <c r="M211" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="13:13">
       <c r="M212" s="30" t="str">
-        <f t="shared" ref="M212:M275" si="93">IF(J212="","",C212*(J212-D212)*S212)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M212:M275" si="96">IF(J212="","",C212*(J212-D212)*S212)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="13:13">
       <c r="M213" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="13:13">
       <c r="M214" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="13:13">
       <c r="M215" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="13:13">
       <c r="M216" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="13:13">
       <c r="M217" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="13:13">
       <c r="M218" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="13:13">
       <c r="M219" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="13:13">
       <c r="M220" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="13:13">
       <c r="M221" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="13:13">
       <c r="M222" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="13:13">
       <c r="M223" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="13:13">
       <c r="M224" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="13:13">
       <c r="M225" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="13:13">
       <c r="M226" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="13:13">
       <c r="M227" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="13:13">
       <c r="M228" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="13:13">
       <c r="M229" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="13:13">
       <c r="M230" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="13:13">
       <c r="M231" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="13:13">
       <c r="M232" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="13:13">
       <c r="M233" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="13:13">
       <c r="M234" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="13:13">
       <c r="M235" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="13:13">
       <c r="M236" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="13:13">
       <c r="M237" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="13:13">
       <c r="M238" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="13:13">
       <c r="M239" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="13:13">
       <c r="M240" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="13:13">
       <c r="M241" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="13:13">
       <c r="M242" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="13:13">
       <c r="M243" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="13:13">
       <c r="M244" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="13:13">
       <c r="M245" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="13:13">
       <c r="M246" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="13:13">
       <c r="M247" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="13:13">
       <c r="M248" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="13:13">
       <c r="M249" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="13:13">
       <c r="M250" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="13:13">
       <c r="M251" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="13:13">
       <c r="M252" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="13:13">
       <c r="M253" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="13:13">
       <c r="M254" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="13:13">
       <c r="M255" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="13:13">
       <c r="M256" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="13:13">
       <c r="M257" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="13:13">
       <c r="M258" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="13:13">
       <c r="M259" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="13:13">
       <c r="M260" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="13:13">
       <c r="M261" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="13:13">
       <c r="M262" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="13:13">
       <c r="M263" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="13:13">
       <c r="M264" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="13:13">
       <c r="M265" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="13:13">
       <c r="M266" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="13:13">
       <c r="M267" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="13:13">
       <c r="M268" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="13:13">
       <c r="M269" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="13:13">
       <c r="M270" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="13:13">
       <c r="M271" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="13:13">
       <c r="M272" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="13:13">
       <c r="M273" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="13:13">
       <c r="M274" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="13:13">
       <c r="M275" s="30" t="str">
-        <f t="shared" si="93"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="13:13">
       <c r="M276" s="30" t="str">
-        <f t="shared" ref="M276:M339" si="94">IF(J276="","",C276*(J276-D276)*S276)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M276:M339" si="97">IF(J276="","",C276*(J276-D276)*S276)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="13:13">
       <c r="M277" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="13:13">
       <c r="M278" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="13:13">
       <c r="M279" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="13:13">
       <c r="M280" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="13:13">
       <c r="M281" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="13:13">
       <c r="M282" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="13:13">
       <c r="M283" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="13:13">
       <c r="M284" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="13:13">
       <c r="M285" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="13:13">
       <c r="M286" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="13:13">
       <c r="M287" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="13:13">
       <c r="M288" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="13:13">
       <c r="M289" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="13:13">
       <c r="M290" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="13:13">
       <c r="M291" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="13:13">
       <c r="M292" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="13:13">
       <c r="M293" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="13:13">
       <c r="M294" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="13:13">
       <c r="M295" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="13:13">
       <c r="M296" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="13:13">
       <c r="M297" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="13:13">
       <c r="M298" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="13:13">
       <c r="M299" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="13:13">
       <c r="M300" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="13:13">
       <c r="M301" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="13:13">
       <c r="M302" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="13:13">
       <c r="M303" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="13:13">
       <c r="M304" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="13:13">
       <c r="M305" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="13:13">
       <c r="M306" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="13:13">
       <c r="M307" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="13:13">
       <c r="M308" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="13:13">
       <c r="M309" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="13:13">
       <c r="M310" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="13:13">
       <c r="M311" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="13:13">
       <c r="M312" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="13:13">
       <c r="M313" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="13:13">
       <c r="M314" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="13:13">
       <c r="M315" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="13:13">
       <c r="M316" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="13:13">
       <c r="M317" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="13:13">
       <c r="M318" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="13:13">
       <c r="M319" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="13:13">
       <c r="M320" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="13:13">
       <c r="M321" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="13:13">
       <c r="M322" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="13:13">
       <c r="M323" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="13:13">
       <c r="M324" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="13:13">
       <c r="M325" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="13:13">
       <c r="M326" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="13:13">
       <c r="M327" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="13:13">
       <c r="M328" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="13:13">
       <c r="M329" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="13:13">
       <c r="M330" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="13:13">
       <c r="M331" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="13:13">
       <c r="M332" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="13:13">
       <c r="M333" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="13:13">
       <c r="M334" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="13:13">
       <c r="M335" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="13:13">
       <c r="M336" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="13:13">
       <c r="M337" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="13:13">
       <c r="M338" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="13:13">
       <c r="M339" s="30" t="str">
-        <f t="shared" si="94"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="13:13">
       <c r="M340" s="30" t="str">
-        <f t="shared" ref="M340:M370" si="95">IF(J340="","",C340*(J340-D340)*S340)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M340:M370" si="98">IF(J340="","",C340*(J340-D340)*S340)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="13:13">
       <c r="M341" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="13:13">
       <c r="M342" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="13:13">
       <c r="M343" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="13:13">
       <c r="M344" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="13:13">
       <c r="M345" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="13:13">
       <c r="M346" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="13:13">
       <c r="M347" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="13:13">
       <c r="M348" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="13:13">
       <c r="M349" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="13:13">
       <c r="M350" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="13:13">
       <c r="M351" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="13:13">
       <c r="M352" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="13:13">
       <c r="M353" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="13:13">
       <c r="M354" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="13:13">
       <c r="M355" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="13:13">
       <c r="M356" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="13:13">
       <c r="M357" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="13:13">
       <c r="M358" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="13:13">
       <c r="M359" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="13:13">
       <c r="M360" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="13:13">
       <c r="M361" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="13:13">
       <c r="M362" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="13:13">
       <c r="M363" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="13:13">
       <c r="M364" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="13:13">
       <c r="M365" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="13:13">
       <c r="M366" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="13:13">
       <c r="M367" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="13:13">
       <c r="M368" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="13:13">
       <c r="M369" s="30" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="13:13">
       <c r="M370" s="30" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
     </row>
@@ -13136,13 +13442,13 @@
       <selection pane="bottomLeft" activeCell="A41" sqref="A41:K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -13177,7 +13483,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
@@ -13212,7 +13518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
         <v>190</v>
       </c>
@@ -13247,7 +13553,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
         <v>189</v>
       </c>
@@ -13282,7 +13588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
         <v>189</v>
       </c>
@@ -13317,7 +13623,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="24" t="s">
         <v>189</v>
       </c>
@@ -13352,7 +13658,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="24" t="s">
         <v>189</v>
       </c>
@@ -13387,7 +13693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
         <v>191</v>
       </c>
@@ -13422,7 +13728,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="24" t="s">
         <v>62</v>
       </c>
@@ -13457,7 +13763,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -13492,7 +13798,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="24" t="s">
         <v>177</v>
       </c>
@@ -13527,7 +13833,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="24" t="s">
         <v>65</v>
       </c>
@@ -13562,7 +13868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
@@ -13597,7 +13903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="24" t="s">
         <v>64</v>
       </c>
@@ -13632,7 +13938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
         <v>187</v>
       </c>
@@ -13667,7 +13973,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="24" t="s">
         <v>119</v>
       </c>
@@ -13702,7 +14008,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="24" t="s">
         <v>182</v>
       </c>
@@ -13737,7 +14043,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="24" t="s">
         <v>190</v>
       </c>
@@ -13772,7 +14078,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="24" t="s">
         <v>79</v>
       </c>
@@ -13807,7 +14113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -13843,7 +14149,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="24" t="s">
         <v>60</v>
       </c>
@@ -13878,7 +14184,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
@@ -13913,7 +14219,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="24" t="s">
         <v>78</v>
       </c>
@@ -13948,7 +14254,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="24" t="s">
         <v>177</v>
       </c>
@@ -13983,7 +14289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="24" t="s">
         <v>189</v>
       </c>
@@ -14018,7 +14324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="24" t="s">
         <v>177</v>
       </c>
@@ -14053,7 +14359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="24" t="s">
         <v>192</v>
       </c>
@@ -14088,7 +14394,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="24" t="s">
         <v>182</v>
       </c>
@@ -14123,7 +14429,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="24" t="s">
         <v>192</v>
       </c>
@@ -14158,7 +14464,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="24" t="s">
         <v>66</v>
       </c>
@@ -14193,7 +14499,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="24" t="s">
         <v>190</v>
       </c>
@@ -14228,7 +14534,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="24" t="s">
         <v>193</v>
       </c>
@@ -14263,7 +14569,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="24" t="s">
         <v>193</v>
       </c>
@@ -14298,7 +14604,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="24" t="s">
         <v>77</v>
       </c>
@@ -14333,7 +14639,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="24" t="s">
         <v>77</v>
       </c>
@@ -14368,7 +14674,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="24" t="s">
         <v>68</v>
       </c>
@@ -14403,7 +14709,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="24" t="s">
         <v>194</v>
       </c>
@@ -14438,7 +14744,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>193</v>
       </c>
@@ -14473,7 +14779,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="24" t="s">
         <v>66</v>
       </c>
@@ -14508,7 +14814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>184</v>
       </c>
@@ -14543,7 +14849,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>74</v>
       </c>
@@ -14578,7 +14884,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>72</v>
       </c>
@@ -14613,7 +14919,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="24" t="s">
         <v>60</v>
       </c>
@@ -14648,7 +14954,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="24" t="s">
         <v>77</v>
       </c>
@@ -14683,7 +14989,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="24" t="s">
         <v>119</v>
       </c>
@@ -14718,7 +15024,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="24" t="s">
         <v>70</v>
       </c>
@@ -14753,7 +15059,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>62</v>
       </c>
@@ -14788,7 +15094,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -14823,7 +15129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="24" t="s">
         <v>67</v>
       </c>
@@ -14858,7 +15164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -14893,7 +15199,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="24" t="s">
         <v>112</v>
       </c>
@@ -14928,7 +15234,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="24" t="s">
         <v>76</v>
       </c>
@@ -14963,7 +15269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>74</v>
       </c>
@@ -14998,7 +15304,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -15033,7 +15339,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -15068,7 +15374,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>76</v>
       </c>
@@ -15103,7 +15409,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="24" t="s">
         <v>177</v>
       </c>
@@ -15138,7 +15444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>64</v>
       </c>
@@ -15173,7 +15479,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="24" t="s">
         <v>67</v>
       </c>
@@ -15208,7 +15514,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>70</v>
       </c>
@@ -15243,7 +15549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="24" t="s">
         <v>74</v>
       </c>
@@ -15278,7 +15584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>76</v>
       </c>
@@ -15313,7 +15619,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="24" t="s">
         <v>70</v>
       </c>
@@ -15348,7 +15654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="24" t="s">
         <v>62</v>
       </c>
@@ -15383,7 +15689,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="24" t="s">
         <v>79</v>
       </c>
@@ -15418,7 +15724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="24" t="s">
         <v>66</v>
       </c>
@@ -15453,7 +15759,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="24" t="s">
         <v>69</v>
       </c>
@@ -15488,7 +15794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="24" t="s">
         <v>62</v>
       </c>
@@ -15523,7 +15829,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>191</v>
       </c>
@@ -15558,7 +15864,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="24" t="s">
         <v>189</v>
       </c>
@@ -15593,7 +15899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="24" t="s">
         <v>62</v>
       </c>
@@ -15628,7 +15934,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="24" t="s">
         <v>112</v>
       </c>
@@ -15663,7 +15969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="24" t="s">
         <v>66</v>
       </c>
@@ -15698,7 +16004,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="24" t="s">
         <v>187</v>
       </c>
@@ -15733,7 +16039,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="24" t="s">
         <v>191</v>
       </c>
@@ -15768,7 +16074,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -15803,7 +16109,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="24" t="s">
         <v>68</v>
       </c>
@@ -15838,7 +16144,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="24" t="s">
         <v>177</v>
       </c>
@@ -15873,7 +16179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="24" t="s">
         <v>182</v>
       </c>
@@ -15908,7 +16214,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="24" t="s">
         <v>68</v>
       </c>
@@ -15943,7 +16249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="24" t="s">
         <v>190</v>
       </c>
@@ -15998,17 +16304,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16033,7 +16339,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -16056,7 +16362,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -16076,7 +16382,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -16096,7 +16402,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -16119,7 +16425,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -16142,7 +16448,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -16162,7 +16468,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -16182,7 +16488,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -16205,7 +16511,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -16228,7 +16534,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -16248,7 +16554,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
@@ -16268,7 +16574,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
@@ -16288,7 +16594,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>29</v>
@@ -16326,15 +16632,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -16366,7 +16672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -16396,7 +16702,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -16426,7 +16732,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -16456,7 +16762,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -16486,7 +16792,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -16516,7 +16822,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -16546,7 +16852,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -16576,7 +16882,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -16606,7 +16912,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -16636,7 +16942,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -16666,7 +16972,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -16696,7 +17002,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -16723,7 +17029,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -16750,7 +17056,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -16777,7 +17083,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -16804,7 +17110,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -16831,7 +17137,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -16858,7 +17164,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -16885,7 +17191,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -16912,7 +17218,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -16939,7 +17245,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -16966,7 +17272,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -16993,7 +17299,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -17020,7 +17326,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -17047,7 +17353,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -17074,7 +17380,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -17101,7 +17407,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -17128,7 +17434,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -17155,7 +17461,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -17182,7 +17488,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -17209,7 +17515,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -17236,7 +17542,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -17263,7 +17569,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -17290,7 +17596,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -17317,7 +17623,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -17344,7 +17650,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -17371,7 +17677,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -17398,7 +17704,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -17425,7 +17731,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -17452,7 +17758,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -17479,7 +17785,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -17506,7 +17812,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -17533,7 +17839,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -17560,7 +17866,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -17587,31 +17893,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="237">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,13 +941,17 @@
   </si>
   <si>
     <t>CS1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU1806</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -957,7 +961,7 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,7 +1280,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1514,7 +1518,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1684,7 +1688,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1797,7 +1801,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -3098,7 +3102,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3138,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,17 +3450,17 @@
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.75" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3472,7 +3476,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>0.25274725274725274</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>0.76957448915635462</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3522,85 +3526,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>0.97484548400000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>0.97710112799999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>0.97533999199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>0.97128279100000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>0.97321309099999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3794,36 +3798,36 @@
   <dimension ref="A1:Z370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="67" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="67" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.75" customWidth="1"/>
-    <col min="17" max="17" width="7.625" customWidth="1"/>
-    <col min="18" max="18" width="5.75" customWidth="1"/>
-    <col min="19" max="19" width="6.125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
     <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1">
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3905,7 @@
       </c>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3996,7 +4000,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4023,7 +4027,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -4064,7 +4068,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -4101,7 +4105,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -4143,7 +4147,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -4185,7 +4189,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4222,7 +4226,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -4298,7 +4302,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -4405,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -4435,7 +4439,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -4672,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1">
+    <row r="24" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -4703,7 +4707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>130</v>
@@ -4778,7 +4782,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4891,7 +4895,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="24"/>
     </row>
-    <row r="35" spans="1:21" ht="14.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4933,7 +4937,7 @@
       <c r="T35" s="36"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1">
+    <row r="36" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>54</v>
@@ -4972,7 +4976,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="1:21" ht="14.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -5004,7 +5008,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="24"/>
     </row>
-    <row r="38" spans="1:21" ht="14.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>41</v>
       </c>
@@ -5033,7 +5037,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" ht="14.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>42</v>
       </c>
@@ -5071,7 +5075,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="24"/>
     </row>
-    <row r="40" spans="1:21" ht="14.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>35</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>36</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="14.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" s="37" t="s">
         <v>34</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>31</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>37</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="14.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>38</v>
@@ -5301,7 +5305,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>39</v>
@@ -5342,7 +5346,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="1:21" ht="14.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -5378,7 +5382,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="24"/>
     </row>
-    <row r="48" spans="1:21" ht="14.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
@@ -5409,7 +5413,7 @@
       <c r="T48" s="36"/>
       <c r="U48" s="24"/>
     </row>
-    <row r="49" spans="1:21" ht="14.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
@@ -5452,7 +5456,7 @@
       <c r="T49" s="36"/>
       <c r="U49" s="24"/>
     </row>
-    <row r="50" spans="1:21" ht="14.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -5483,7 +5487,7 @@
       <c r="T50" s="36"/>
       <c r="U50" s="24"/>
     </row>
-    <row r="51" spans="1:21" ht="14.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5513,7 +5517,7 @@
       <c r="T51" s="36"/>
       <c r="U51" s="24"/>
     </row>
-    <row r="52" spans="1:21" ht="14.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
@@ -5540,7 +5544,7 @@
       <c r="T52" s="36"/>
       <c r="U52" s="24"/>
     </row>
-    <row r="53" spans="1:21" ht="14.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="14.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="14.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="14.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="14.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="14.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="14.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>47</v>
       </c>
@@ -5750,7 +5754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="14.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="14.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>51</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="14.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>51</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="14.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
@@ -5886,7 +5890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="14.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="14.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
@@ -5939,7 +5943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="14.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="14.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>55</v>
@@ -6002,7 +6006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="14.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -6049,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="14.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>47</v>
       </c>
@@ -6086,7 +6090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="14.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>41</v>
@@ -6138,7 +6142,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="14.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="14.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>18</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="14.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>57</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="14.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>58</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="14.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>18</v>
       </c>
@@ -6375,7 +6379,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15" thickBot="1">
+    <row r="78" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>88</v>
@@ -6427,7 +6431,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="14.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>91</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="14.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
         <v>92</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="14.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
         <v>93</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="14.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>94</v>
@@ -6665,7 +6669,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="14.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6712,7 +6716,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="14.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>96</v>
       </c>
@@ -6756,7 +6760,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="14.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
@@ -6800,7 +6804,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="14.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>95</v>
@@ -6852,7 +6856,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="14.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>106</v>
@@ -6904,7 +6908,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="14.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="14.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="14.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="14.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>101</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="14.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>101</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="14.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="14.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>103</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="14.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>104</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="14.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>105</v>
@@ -7320,7 +7324,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="14.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="14.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>31</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="14.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="14.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>107</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="14.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>108</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="14.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>109</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="14.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>110</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="14.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>111</v>
       </c>
@@ -7689,7 +7693,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="14.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>113</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="14.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>115</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="14.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>116</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="14.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>118</v>
@@ -7875,7 +7879,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="14.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7930,7 +7934,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="14.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>127</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="14.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>128</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="14.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>129</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="14.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>131</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="14.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>135</v>
       </c>
@@ -8149,7 +8153,7 @@
       <c r="T115" s="53"/>
       <c r="U115" s="24"/>
     </row>
-    <row r="116" spans="1:21" ht="14.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>136</v>
       </c>
@@ -8188,7 +8192,7 @@
       <c r="T116" s="53"/>
       <c r="U116" s="24"/>
     </row>
-    <row r="117" spans="1:21" ht="14.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>132</v>
       </c>
@@ -8233,7 +8237,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="14.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>133</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="15" thickBot="1">
+    <row r="119" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>134</v>
@@ -8331,7 +8335,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="14.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="14.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>137</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="14.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>138</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="14.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>59</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="14.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
@@ -8566,7 +8570,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="14.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>139</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="14.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>140</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="14.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>141</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="14.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>142</v>
       </c>
@@ -8746,7 +8750,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="14.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>143</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="14.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>144</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="14.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>145</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="14.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>145</v>
@@ -8933,7 +8937,7 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="14.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43130</v>
       </c>
@@ -8981,7 +8985,7 @@
         <v>1.8271382919080545</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="14.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>10.098637655776356</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="14.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>146</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>1.5392638249301374</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="14.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>147</v>
       </c>
@@ -9123,7 +9127,7 @@
         <v>13.03266339869281</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="14.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>148</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>1.830217334331711</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="14.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>148</v>
       </c>
@@ -9213,7 +9217,7 @@
         <v>1.8278222097588335</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="14.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>149</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>5.8652915113339326</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="14.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
@@ -9303,7 +9307,7 @@
         <v>10.405516177096636</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="14.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>151</v>
@@ -9355,7 +9359,7 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="14.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>19.481689439225732</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="14.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>155</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>22.333308121827415</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="14.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>156</v>
       </c>
@@ -9493,7 +9497,7 @@
         <v>26.703671891699322</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="14.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>157</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>15.951269310829813</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="14.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>158</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>16.109544487717194</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="14.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>159</v>
       </c>
@@ -9635,7 +9639,7 @@
         <v>10.481828122989837</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="14.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>152</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>4.7576763990267636</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="14.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>153</v>
       </c>
@@ -9725,7 +9729,7 @@
         <v>13.295909256683668</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="14.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>160</v>
       </c>
@@ -9769,7 +9773,7 @@
         <v>0.75932176141658903</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="14.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>161</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>14.271405907172996</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="14.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>162</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>0.950857036340649</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="14.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>163</v>
       </c>
@@ -9903,7 +9907,7 @@
         <v>3.8088335532516493</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="14.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>160</v>
       </c>
@@ -9947,7 +9951,7 @@
         <v>0.7602076821398025</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="14.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>164</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>3.7511632903621859</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="14.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>165</v>
       </c>
@@ -10037,7 +10041,7 @@
         <v>8.289624463459111</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="14.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>166</v>
@@ -10090,7 +10094,7 @@
         <v>8.7877809450436573</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="14.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43132</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>15.894944220204057</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="14.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
         <v>14</v>
       </c>
@@ -10190,7 +10194,7 @@
         <v>17.383604775209552</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="14.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>167</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>13.746963744099627</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="14.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>168</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>3.3788825475191313</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="14.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>169</v>
       </c>
@@ -10325,7 +10329,7 @@
         <v>10.445554487179487</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="14.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>170</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>2.5716160714168299</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="14.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>171</v>
       </c>
@@ -10415,7 +10419,7 @@
         <v>9.3683468678883717</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="14.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>172</v>
       </c>
@@ -10465,7 +10469,7 @@
         <v>0.95865884429337167</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="14.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>0.96809252422377834</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="14.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>173</v>
       </c>
@@ -10553,7 +10557,7 @@
         <v>0.96502126339537508</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="14.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>174</v>
@@ -10606,7 +10610,7 @@
         <v>5.5458713713713719</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="14.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43133</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>8.2378377082118099</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="14.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>176</v>
       </c>
@@ -10699,7 +10703,7 @@
         <v>11.161012557077626</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="14.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -10767,7 +10771,7 @@
         <v>21.735132999871748</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="14.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>179</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>1.3392138667311257</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="14.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
         <v>180</v>
       </c>
@@ -10864,7 +10868,7 @@
         <v>3.7589580930411381</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="14.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>175</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>8.0530737502375977</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="14.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>181</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>21.104470900788709</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="14.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>183</v>
       </c>
@@ -11005,7 +11009,7 @@
         <v>18.034571496229827</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="14.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>184</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>9.9209071537290718</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="14.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>185</v>
       </c>
@@ -11095,7 +11099,7 @@
         <v>13.693354341736693</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="14.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>186</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>15.999347813150848</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="14.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
@@ -11185,7 +11189,7 @@
         <v>3.7305620421245425</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="14.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>188</v>
       </c>
@@ -11230,7 +11234,7 @@
         <v>14.43640900701366</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="14.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
@@ -11275,7 +11279,7 @@
         <v>9.9174287609238458</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="14.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>225</v>
       </c>
@@ -11342,7 +11346,7 @@
         <v>6.6998942731277538</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="14.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>185</v>
       </c>
@@ -11387,7 +11391,7 @@
         <v>13.681044877561218</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="14.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>204</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>18.082838503572933</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="14.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>205</v>
       </c>
@@ -11483,7 +11487,7 @@
         <v>26.671644972720188</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="14.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>184</v>
       </c>
@@ -11528,7 +11532,7 @@
         <v>10.695334896077512</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="14.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>206</v>
@@ -11580,7 +11584,7 @@
         <v>0.65961827287352748</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="14.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43136</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>20.113539826422375</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="14.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>208</v>
       </c>
@@ -11673,7 +11677,7 @@
         <v>9.3683717810516232</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="14.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
         <v>209</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>4.254753073436083</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="14.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>210</v>
       </c>
@@ -11752,7 +11756,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I192" s="34">
-        <f t="shared" ref="I192:I203" si="90">G192*H192</f>
+        <f t="shared" ref="I192:I205" si="90">G192*H192</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J192" s="1">
@@ -11783,7 +11787,7 @@
         <v>27.657903818953322</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="14.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>211</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>14.315545184168382</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="14.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>212</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>20.448012249775921</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="14.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>213</v>
       </c>
@@ -11942,7 +11946,7 @@
         <v>-4000</v>
       </c>
       <c r="N195" s="1">
-        <f t="shared" ref="N195:N202" si="92">C195*(1-H195)/H195</f>
+        <f t="shared" ref="N195:N201" si="92">C195*(1-H195)/H195</f>
         <v>20</v>
       </c>
       <c r="O195" s="1">
@@ -11967,7 +11971,7 @@
         <v>20.113552169720347</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="14.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>214</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>0.40138888888888885</v>
       </c>
       <c r="M196" s="30">
-        <f t="shared" ref="M195:M203" si="93">IF(J196="","",C196*(J196-D196)*S196)+IF(J196="","",N196*(J196-O196)*S196)</f>
+        <f t="shared" ref="M196:M203" si="93">IF(J196="","",C196*(J196-D196)*S196)+IF(J196="","",N196*(J196-O196)*S196)</f>
         <v>-2459.9999999999454</v>
       </c>
       <c r="N196" s="1">
@@ -12025,7 +12029,7 @@
         <v>1.2333110059918007</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="14.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>215</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>30.692177777777776</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="14.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>216</v>
@@ -12156,7 +12160,7 @@
         <v>27.17913191811979</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="14.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43137</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>13.343793513166345</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="14.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>230</v>
       </c>
@@ -12273,7 +12277,7 @@
         <v>3.7034382575757574</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="14.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>231</v>
       </c>
@@ -12328,7 +12332,7 @@
         <v>14.906148024948026</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="14.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>232</v>
       </c>
@@ -12380,37 +12384,45 @@
         <v>20.441921445639188</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="14.25">
-      <c r="B203" s="1" t="s">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="3">
         <v>73</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="3">
         <v>2132</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="33">
         <v>43137</v>
       </c>
-      <c r="F203" s="40">
+      <c r="F203" s="45">
         <v>0.61875000000000002</v>
       </c>
-      <c r="G203" s="31">
+      <c r="G203" s="32">
         <v>2.4E-2</v>
       </c>
-      <c r="H203" s="67">
+      <c r="H203" s="66">
         <v>1</v>
       </c>
-      <c r="I203" s="31">
+      <c r="I203" s="32">
         <f t="shared" si="90"/>
         <v>2.4E-2</v>
       </c>
-      <c r="M203" s="30" t="e">
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="28" t="e">
         <f t="shared" si="93"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N203" s="24"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
       <c r="S203" s="11">
         <f>[1]!WSD($B203,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
@@ -12423,1005 +12435,1069 @@
         <v>73.373958724202637</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D204" s="1">
+        <v>274.35000000000002</v>
+      </c>
+      <c r="G204" s="31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H204" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I204" s="31">
+        <f t="shared" si="90"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="M204" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="1:21">
+      <c r="S204" s="11">
+        <f>[1]!WSD($B204,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>1000</v>
+      </c>
+      <c r="T204" s="53">
+        <v>9777081</v>
+      </c>
+      <c r="U204" s="24">
+        <f t="shared" ref="U204" si="96">T204*I204/(D204*S204*0.15)</f>
+        <v>2.1382353198469106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C205" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D205" s="1">
+        <v>5096</v>
+      </c>
+      <c r="G205" s="31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H205" s="67">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I205" s="31">
+        <f t="shared" si="90"/>
+        <v>5.9999999999999993E-3</v>
+      </c>
       <c r="M205" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="1:21">
+      <c r="S205" s="11">
+        <f>[1]!WSD($B205,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="T205" s="53">
+        <v>9777082</v>
+      </c>
+      <c r="U205" s="24">
+        <f t="shared" ref="U205" si="97">T205*I205/(D205*S205*0.15)</f>
+        <v>7.6743186813186801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M206" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M207" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M208" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="13:13">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M209" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="13:13">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M210" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="13:13">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M211" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="13:13">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M212" s="30" t="str">
-        <f t="shared" ref="M212:M275" si="96">IF(J212="","",C212*(J212-D212)*S212)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="13:13">
+        <f t="shared" ref="M212:M275" si="98">IF(J212="","",C212*(J212-D212)*S212)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M213" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M214" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M215" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M216" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M217" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M218" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M219" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M220" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M221" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M222" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M223" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M224" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M225" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M226" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M227" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M228" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M229" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M230" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M231" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M232" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M233" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M234" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M235" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M236" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M237" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M238" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M239" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M240" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M241" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M242" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M243" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M244" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M245" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M246" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M247" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M248" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M249" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M250" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M251" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M252" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M253" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M254" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M255" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M256" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M257" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M258" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M259" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M260" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M261" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M262" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M263" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M264" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M265" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M266" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M267" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M268" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M269" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M270" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M271" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M272" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M273" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M274" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M275" s="30" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="13:13">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M276" s="30" t="str">
-        <f t="shared" ref="M276:M339" si="97">IF(J276="","",C276*(J276-D276)*S276)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="13:13">
+        <f t="shared" ref="M276:M339" si="99">IF(J276="","",C276*(J276-D276)*S276)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M277" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M278" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M279" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M280" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M281" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M282" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M283" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M284" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M285" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M286" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M287" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M288" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M289" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M290" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M291" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M292" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M293" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M294" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M295" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M296" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M297" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M298" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M299" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M300" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M301" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M302" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M303" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M304" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M305" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M306" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M307" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M308" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M309" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M310" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M311" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M312" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M313" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M314" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M315" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M316" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M317" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M318" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M319" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M320" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M321" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M322" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M323" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M324" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M325" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M326" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M327" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M328" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M329" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M330" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M331" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M332" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M333" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M334" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M335" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M336" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M337" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M338" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M339" s="30" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="13:13">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M340" s="30" t="str">
-        <f t="shared" ref="M340:M370" si="98">IF(J340="","",C340*(J340-D340)*S340)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="13:13">
+        <f t="shared" ref="M340:M370" si="100">IF(J340="","",C340*(J340-D340)*S340)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M341" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M342" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M343" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M344" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M345" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M346" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M347" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M348" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M349" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M350" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M351" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M352" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M353" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M354" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M355" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M356" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M357" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M358" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M359" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M360" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M361" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M362" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M363" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M364" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M365" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M366" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M367" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M368" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M369" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="13:13">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M370" s="30" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
     </row>
@@ -13442,13 +13518,13 @@
       <selection pane="bottomLeft" activeCell="A41" sqref="A41:K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -13483,7 +13559,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
@@ -13518,7 +13594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>190</v>
       </c>
@@ -13553,7 +13629,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>189</v>
       </c>
@@ -13588,7 +13664,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>189</v>
       </c>
@@ -13623,7 +13699,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>189</v>
       </c>
@@ -13658,7 +13734,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>189</v>
       </c>
@@ -13693,7 +13769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>191</v>
       </c>
@@ -13728,7 +13804,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>62</v>
       </c>
@@ -13763,7 +13839,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -13798,7 +13874,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>177</v>
       </c>
@@ -13833,7 +13909,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>65</v>
       </c>
@@ -13868,7 +13944,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
@@ -13903,7 +13979,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>64</v>
       </c>
@@ -13938,7 +14014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>187</v>
       </c>
@@ -13973,7 +14049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>119</v>
       </c>
@@ -14008,7 +14084,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>182</v>
       </c>
@@ -14043,7 +14119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>190</v>
       </c>
@@ -14078,7 +14154,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>79</v>
       </c>
@@ -14113,7 +14189,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -14149,7 +14225,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>60</v>
       </c>
@@ -14184,7 +14260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
@@ -14219,7 +14295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>78</v>
       </c>
@@ -14254,7 +14330,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>177</v>
       </c>
@@ -14289,7 +14365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>189</v>
       </c>
@@ -14324,7 +14400,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>177</v>
       </c>
@@ -14359,7 +14435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>192</v>
       </c>
@@ -14394,7 +14470,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>182</v>
       </c>
@@ -14429,7 +14505,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>192</v>
       </c>
@@ -14464,7 +14540,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>66</v>
       </c>
@@ -14499,7 +14575,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>190</v>
       </c>
@@ -14534,7 +14610,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>193</v>
       </c>
@@ -14569,7 +14645,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>193</v>
       </c>
@@ -14604,7 +14680,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>77</v>
       </c>
@@ -14639,7 +14715,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>77</v>
       </c>
@@ -14674,7 +14750,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>68</v>
       </c>
@@ -14709,7 +14785,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>194</v>
       </c>
@@ -14744,7 +14820,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>193</v>
       </c>
@@ -14779,7 +14855,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>66</v>
       </c>
@@ -14814,7 +14890,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>184</v>
       </c>
@@ -14849,7 +14925,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>74</v>
       </c>
@@ -14884,7 +14960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>72</v>
       </c>
@@ -14919,7 +14995,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>60</v>
       </c>
@@ -14954,7 +15030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>77</v>
       </c>
@@ -14989,7 +15065,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>119</v>
       </c>
@@ -15024,7 +15100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>70</v>
       </c>
@@ -15059,7 +15135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>62</v>
       </c>
@@ -15094,7 +15170,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -15129,7 +15205,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>67</v>
       </c>
@@ -15164,7 +15240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -15199,7 +15275,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>112</v>
       </c>
@@ -15234,7 +15310,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>76</v>
       </c>
@@ -15269,7 +15345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>74</v>
       </c>
@@ -15304,7 +15380,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -15339,7 +15415,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -15374,7 +15450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>76</v>
       </c>
@@ -15409,7 +15485,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>177</v>
       </c>
@@ -15444,7 +15520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>64</v>
       </c>
@@ -15479,7 +15555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>67</v>
       </c>
@@ -15514,7 +15590,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>70</v>
       </c>
@@ -15549,7 +15625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>74</v>
       </c>
@@ -15584,7 +15660,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>76</v>
       </c>
@@ -15619,7 +15695,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>70</v>
       </c>
@@ -15654,7 +15730,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>62</v>
       </c>
@@ -15689,7 +15765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>79</v>
       </c>
@@ -15724,7 +15800,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>66</v>
       </c>
@@ -15759,7 +15835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>69</v>
       </c>
@@ -15794,7 +15870,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>62</v>
       </c>
@@ -15829,7 +15905,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>191</v>
       </c>
@@ -15864,7 +15940,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>189</v>
       </c>
@@ -15899,7 +15975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>62</v>
       </c>
@@ -15934,7 +16010,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>112</v>
       </c>
@@ -15969,7 +16045,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>66</v>
       </c>
@@ -16004,7 +16080,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>187</v>
       </c>
@@ -16039,7 +16115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>191</v>
       </c>
@@ -16074,7 +16150,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -16109,7 +16185,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>68</v>
       </c>
@@ -16144,7 +16220,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>177</v>
       </c>
@@ -16179,7 +16255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>182</v>
       </c>
@@ -16214,7 +16290,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>68</v>
       </c>
@@ -16249,7 +16325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>190</v>
       </c>
@@ -16304,17 +16380,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16339,7 +16415,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -16362,7 +16438,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -16382,7 +16458,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -16402,7 +16478,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -16425,7 +16501,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -16448,7 +16524,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -16468,7 +16544,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -16488,7 +16564,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -16511,7 +16587,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -16534,7 +16610,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -16554,7 +16630,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
@@ -16574,7 +16650,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
@@ -16594,7 +16670,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>29</v>
@@ -16632,15 +16708,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -16672,7 +16748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -16702,7 +16778,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -16732,7 +16808,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -16762,7 +16838,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -16792,7 +16868,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -16822,7 +16898,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -16852,7 +16928,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -16882,7 +16958,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -16912,7 +16988,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -16942,7 +17018,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -16972,7 +17048,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -17002,7 +17078,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -17029,7 +17105,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -17056,7 +17132,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -17083,7 +17159,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -17110,7 +17186,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -17137,7 +17213,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -17164,7 +17240,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -17191,7 +17267,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -17218,7 +17294,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -17245,7 +17321,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -17272,7 +17348,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -17299,7 +17375,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -17326,7 +17402,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -17353,7 +17429,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -17380,7 +17456,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -17407,7 +17483,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -17434,7 +17510,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -17461,7 +17537,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -17488,7 +17564,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -17515,7 +17591,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -17542,7 +17618,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -17569,7 +17645,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -17596,7 +17672,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -17623,7 +17699,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -17650,7 +17726,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -17677,7 +17753,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -17704,7 +17780,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -17731,7 +17807,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -17758,7 +17834,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -17785,7 +17861,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -17812,7 +17888,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -17839,7 +17915,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -17866,7 +17942,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -17893,31 +17969,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>

--- a/Simulation_Trade/Trend/SimulationTrading.xlsx
+++ b/Simulation_Trade/Trend/SimulationTrading.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权益" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="nv">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
     <definedName name="tt">权益!#REF!:OFFSET(权益!#REF!,权益!$E$1,0)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="246">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,13 +945,49 @@
   </si>
   <si>
     <t>AU1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH1803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU1803</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -961,7 +997,7 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,7 +1316,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1518,7 +1554,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274C-4662-BEE7-8D967E8C4642}"/>
             </c:ext>
@@ -1533,11 +1569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="293054192"/>
-        <c:axId val="293054752"/>
+        <c:axId val="461844736"/>
+        <c:axId val="461845296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="293054192"/>
+        <c:axId val="461844736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,14 +1616,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293054752"/>
+        <c:crossAx val="461845296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="293054752"/>
+        <c:axId val="461845296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293054192"/>
+        <c:crossAx val="461844736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1688,7 +1724,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1801,7 +1837,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B35-416B-9AFA-953125FAB79D}"/>
             </c:ext>
@@ -1816,11 +1852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="292581760"/>
-        <c:axId val="292582320"/>
+        <c:axId val="461847536"/>
+        <c:axId val="461848096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="292581760"/>
+        <c:axId val="461847536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,14 +1899,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292582320"/>
+        <c:crossAx val="461848096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="292582320"/>
+        <c:axId val="461848096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1957,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292581760"/>
+        <c:crossAx val="461847536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3102,7 +3138,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3174,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,17 +3486,17 @@
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" customWidth="1"/>
+    <col min="8" max="9" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3476,7 +3512,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3492,10 +3528,10 @@
       </c>
       <c r="G2" s="9">
         <f>成交记录!V1/成交记录!U1</f>
-        <v>0.25274725274725274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.24598930481283424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>43095</v>
       </c>
@@ -3511,10 +3547,10 @@
       </c>
       <c r="G3" s="29">
         <f>成交记录!X1/成交记录!Y1</f>
-        <v>0.76957448915635462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.74010548144374033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>43096</v>
       </c>
@@ -3526,85 +3562,85 @@
         <v>0.992039</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>43097</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43098</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>43102</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>43103</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43104</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>43105</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>43108</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>43109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>43110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>43111</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="33">
         <v>43112</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43115</v>
       </c>
@@ -3616,7 +3652,7 @@
         <v>0.98367360000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -3628,7 +3664,7 @@
         <v>0.9743676</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -3640,7 +3676,7 @@
         <v>0.96859209999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43118</v>
       </c>
@@ -3652,7 +3688,7 @@
         <v>0.97040610000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="33">
         <v>43119</v>
       </c>
@@ -3664,7 +3700,7 @@
         <v>0.97298989999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43122</v>
       </c>
@@ -3676,7 +3712,7 @@
         <v>0.97157280000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43123</v>
       </c>
@@ -3688,7 +3724,7 @@
         <v>0.97568270000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43124</v>
       </c>
@@ -3700,7 +3736,7 @@
         <v>0.97392330000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43125</v>
       </c>
@@ -3712,7 +3748,7 @@
         <v>0.97964110000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="33">
         <v>43126</v>
       </c>
@@ -3724,7 +3760,7 @@
         <v>0.97484548400000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43129</v>
       </c>
@@ -3736,7 +3772,7 @@
         <v>0.97710112799999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43130</v>
       </c>
@@ -3748,7 +3784,7 @@
         <v>0.97533999199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43131</v>
       </c>
@@ -3760,7 +3796,7 @@
         <v>0.97128279100000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43132</v>
       </c>
@@ -3772,7 +3808,7 @@
         <v>0.97321309099999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43133</v>
       </c>
@@ -3798,36 +3834,36 @@
   <dimension ref="A1:Z370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E205" sqref="E205"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N206" sqref="N206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="67" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="5.75" customWidth="1"/>
+    <col min="19" max="19" width="6.125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="8.625" customWidth="1"/>
     <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3921,7 @@
       <c r="T1" s="13"/>
       <c r="U1" s="10">
         <f>COUNT(M2:M9987)</f>
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="V1" s="13">
         <f>COUNTIF(M2:M9987,"&gt;0")</f>
@@ -3893,7 +3929,7 @@
       </c>
       <c r="W1" s="13">
         <f>COUNTIF(M2:M9987,"&lt;0")</f>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X1" s="13">
         <f>SUMIF(M2:M9987,"&gt;0")</f>
@@ -3901,11 +3937,11 @@
       </c>
       <c r="Y1" s="13">
         <f>ABS(SUMIF(M2:M9987,"&lt;0"))</f>
-        <v>801535.86000000068</v>
+        <v>833450.86000000068</v>
       </c>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -3959,7 +3995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4000,7 +4036,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4027,7 +4063,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -4068,7 +4104,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -4105,7 +4141,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -4147,7 +4183,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25">
       <c r="A8" s="2">
         <v>43095</v>
       </c>
@@ -4189,7 +4225,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4226,7 +4262,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4261,7 +4297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -4302,7 +4338,7 @@
         <v>34.564459930313589</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25">
       <c r="A12" s="2">
         <v>43096</v>
       </c>
@@ -4345,7 +4381,7 @@
         <v>46.739641678453552</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4382,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -4409,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -4439,7 +4475,7 @@
         <v>50.205011389521637</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4465,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14.25">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4502,7 +4538,7 @@
         <v>6.0256265072874067</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.25">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4526,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="14.25">
       <c r="A19" s="2">
         <v>43097</v>
       </c>
@@ -4566,7 +4602,7 @@
         <v>98.879693486590043</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="14.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4606,7 +4642,7 @@
         <v>59.353241694221374</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="14.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4628,7 +4664,7 @@
         <v>9919801</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="14.25">
       <c r="A22" s="2">
         <v>43098</v>
       </c>
@@ -4657,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="14.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -4676,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -4707,7 +4743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="14.25">
       <c r="A25" s="2">
         <v>43101</v>
       </c>
@@ -4716,7 +4752,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="14.25">
       <c r="A26" s="2">
         <v>43102</v>
       </c>
@@ -4750,7 +4786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="14.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>130</v>
@@ -4782,7 +4818,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="14.25">
       <c r="A28" s="2">
         <v>43103</v>
       </c>
@@ -4791,7 +4827,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="14.25">
       <c r="A29" s="2">
         <v>43104</v>
       </c>
@@ -4800,7 +4836,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.25">
       <c r="A30" s="2">
         <v>43105</v>
       </c>
@@ -4809,7 +4845,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="14.25">
       <c r="A31" s="2">
         <v>43108</v>
       </c>
@@ -4818,7 +4854,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="14.25">
       <c r="A32" s="2">
         <v>43109</v>
       </c>
@@ -4827,7 +4863,7 @@
         <v>#NA</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="14.25">
       <c r="A33" s="2">
         <v>43110</v>
       </c>
@@ -4864,7 +4900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="14.25">
       <c r="A34" s="33">
         <v>43111</v>
       </c>
@@ -4895,7 +4931,7 @@
       <c r="T34" s="36"/>
       <c r="U34" s="24"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="14.25">
       <c r="A35" s="35">
         <v>43112</v>
       </c>
@@ -4937,7 +4973,7 @@
       <c r="T35" s="36"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15" thickBot="1">
       <c r="A36" s="52"/>
       <c r="B36" s="48" t="s">
         <v>54</v>
@@ -4976,7 +5012,7 @@
       <c r="T36" s="36"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="14.25">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -5008,7 +5044,7 @@
       <c r="T37" s="36"/>
       <c r="U37" s="24"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="14.25">
       <c r="B38" s="37" t="s">
         <v>41</v>
       </c>
@@ -5037,7 +5073,7 @@
       <c r="T38" s="36"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="14.25">
       <c r="B39" s="28" t="s">
         <v>42</v>
       </c>
@@ -5075,7 +5111,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="24"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="14.25">
       <c r="B40" s="37" t="s">
         <v>35</v>
       </c>
@@ -5111,7 +5147,7 @@
         <v>76.690140845070417</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="14.25">
       <c r="B41" s="37" t="s">
         <v>36</v>
       </c>
@@ -5147,7 +5183,7 @@
         <v>63.936591809775429</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="14.25">
       <c r="B42" s="37" t="s">
         <v>34</v>
       </c>
@@ -5187,7 +5223,7 @@
         <v>88.933333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="14.25">
       <c r="B43" s="37" t="s">
         <v>31</v>
       </c>
@@ -5223,7 +5259,7 @@
         <v>19.213009435856254</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="14.25">
       <c r="B44" s="37" t="s">
         <v>37</v>
       </c>
@@ -5259,7 +5295,7 @@
         <v>1.4681581288928436</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="14.25">
       <c r="A45" s="24"/>
       <c r="B45" s="30" t="s">
         <v>38</v>
@@ -5305,7 +5341,7 @@
         <v>51.21042830540037</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>39</v>
@@ -5346,7 +5382,7 @@
       <c r="T46" s="36"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="14.25">
       <c r="A47" s="2">
         <v>43116</v>
       </c>
@@ -5382,7 +5418,7 @@
       <c r="T47" s="36"/>
       <c r="U47" s="24"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="14.25">
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
@@ -5413,7 +5449,7 @@
       <c r="T48" s="36"/>
       <c r="U48" s="24"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>39</v>
@@ -5456,7 +5492,7 @@
       <c r="T49" s="36"/>
       <c r="U49" s="24"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="14.25">
       <c r="A50" s="2">
         <v>43117</v>
       </c>
@@ -5487,7 +5523,7 @@
       <c r="T50" s="36"/>
       <c r="U50" s="24"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="14.25">
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5517,7 +5553,7 @@
       <c r="T51" s="36"/>
       <c r="U51" s="24"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="14.25">
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
@@ -5544,7 +5580,7 @@
       <c r="T52" s="36"/>
       <c r="U52" s="24"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.25">
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
@@ -5569,7 +5605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="14.25">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -5594,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="14.25">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -5622,7 +5658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="14.25">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -5648,7 +5684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="14.25">
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
@@ -5673,7 +5709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="14.25">
       <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
@@ -5699,7 +5735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="14.25">
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
@@ -5725,7 +5761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="14.25">
       <c r="B60" s="1" t="s">
         <v>47</v>
       </c>
@@ -5754,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="14.25">
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
@@ -5782,7 +5818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="14.25">
       <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
@@ -5811,7 +5847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="14.25">
       <c r="B63" s="1" t="s">
         <v>51</v>
       </c>
@@ -5837,7 +5873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="14.25">
       <c r="B64" s="1" t="s">
         <v>51</v>
       </c>
@@ -5865,7 +5901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="14.25">
       <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
@@ -5890,7 +5926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="14.25">
       <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
@@ -5917,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="14.25">
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
@@ -5943,7 +5979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="14.25">
       <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
@@ -5968,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="14.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>55</v>
@@ -6006,7 +6042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="14.25">
       <c r="A70" s="2">
         <v>43118</v>
       </c>
@@ -6053,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="14.25">
       <c r="B71" s="1" t="s">
         <v>47</v>
       </c>
@@ -6090,7 +6126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="14.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>41</v>
@@ -6142,7 +6178,7 @@
         <v>38.911646586345384</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="14.25">
       <c r="A73" s="2">
         <v>43119</v>
       </c>
@@ -6189,7 +6225,7 @@
         <v>26.677680261572878</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="14.25">
       <c r="B74" s="3" t="s">
         <v>18</v>
       </c>
@@ -6240,7 +6276,7 @@
         <v>17.340493959731543</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="14.25">
       <c r="B75" s="1" t="s">
         <v>57</v>
       </c>
@@ -6284,7 +6320,7 @@
         <v>84.561718273004786</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="14.25">
       <c r="B76" s="1" t="s">
         <v>58</v>
       </c>
@@ -6328,7 +6364,7 @@
         <v>8.40048695953557</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="14.25">
       <c r="B77" s="24" t="s">
         <v>18</v>
       </c>
@@ -6379,7 +6415,7 @@
         <v>17.463869939523303</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="15" thickBot="1">
       <c r="A78" s="48"/>
       <c r="B78" s="48" t="s">
         <v>88</v>
@@ -6431,7 +6467,7 @@
         <v>16.777492640692639</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="14.25">
       <c r="A79" s="2">
         <v>43122</v>
       </c>
@@ -6478,7 +6514,7 @@
         <v>7.4159984691924992</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="14.25">
       <c r="B80" s="1" t="s">
         <v>91</v>
       </c>
@@ -6522,7 +6558,7 @@
         <v>7.4231013215859019</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="14.25">
       <c r="B81" s="24" t="s">
         <v>92</v>
       </c>
@@ -6573,7 +6609,7 @@
         <v>43.613142857142854</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="14.25">
       <c r="B82" s="24" t="s">
         <v>93</v>
       </c>
@@ -6617,7 +6653,7 @@
         <v>4.662824207492795</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="14.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>94</v>
@@ -6669,7 +6705,7 @@
         <v>0.97343349376734956</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="14.25">
       <c r="A84" s="2">
         <v>43123</v>
       </c>
@@ -6716,7 +6752,7 @@
         <v>20.481016877637131</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="14.25">
       <c r="B85" s="1" t="s">
         <v>96</v>
       </c>
@@ -6760,7 +6796,7 @@
         <v>12.533690551421873</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="14.25">
       <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
@@ -6804,7 +6840,7 @@
         <v>33.088445734277656</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="14.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
         <v>95</v>
@@ -6856,7 +6892,7 @@
         <v>28.499071084084715</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="14.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>106</v>
@@ -6908,7 +6944,7 @@
         <v>26.886663501483682</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="14.25">
       <c r="A89" s="2">
         <v>43124</v>
       </c>
@@ -6962,7 +6998,7 @@
         <v>53.410869034804449</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="14.25">
       <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
@@ -7007,7 +7043,7 @@
         <v>12.266434837545125</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="14.25">
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
@@ -7052,7 +7088,7 @@
         <v>4.0888120336943441</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="14.25">
       <c r="B92" s="1" t="s">
         <v>101</v>
       </c>
@@ -7096,7 +7132,7 @@
         <v>23.449297101449272</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.25">
       <c r="B93" s="1" t="s">
         <v>101</v>
       </c>
@@ -7140,7 +7176,7 @@
         <v>23.598335365423566</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.25">
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
@@ -7184,7 +7220,7 @@
         <v>28.687978580428393</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.25">
       <c r="B95" s="1" t="s">
         <v>103</v>
       </c>
@@ -7228,7 +7264,7 @@
         <v>29.31465774001116</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.25">
       <c r="B96" s="1" t="s">
         <v>104</v>
       </c>
@@ -7272,7 +7308,7 @@
         <v>13.829873507423025</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="14.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>105</v>
@@ -7324,7 +7360,7 @@
         <v>23.651264957264956</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="14.25">
       <c r="A98" s="2">
         <v>43125</v>
       </c>
@@ -7372,7 +7408,7 @@
         <v>16.118763542729436</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="14.25">
       <c r="B99" s="1" t="s">
         <v>31</v>
       </c>
@@ -7417,7 +7453,7 @@
         <v>12.069889078327151</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="14.25">
       <c r="B100" s="3" t="s">
         <v>59</v>
       </c>
@@ -7469,7 +7505,7 @@
         <v>14.708466623600346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="14.25">
       <c r="B101" s="1" t="s">
         <v>107</v>
       </c>
@@ -7514,7 +7550,7 @@
         <v>16.512933810238067</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="14.25">
       <c r="B102" s="1" t="s">
         <v>108</v>
       </c>
@@ -7559,7 +7595,7 @@
         <v>8.4356126620900085</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="14.25">
       <c r="B103" s="1" t="s">
         <v>109</v>
       </c>
@@ -7604,7 +7640,7 @@
         <v>13.069506110832076</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="14.25">
       <c r="B104" s="1" t="s">
         <v>110</v>
       </c>
@@ -7649,7 +7685,7 @@
         <v>13.872233370744482</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="14.25">
       <c r="B105" s="1" t="s">
         <v>111</v>
       </c>
@@ -7693,7 +7729,7 @@
         <v>12.256255390412392</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="14.25">
       <c r="B106" s="1" t="s">
         <v>113</v>
       </c>
@@ -7738,7 +7774,7 @@
         <v>5.3859083343947702</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="14.25">
       <c r="B107" s="1" t="s">
         <v>115</v>
       </c>
@@ -7783,7 +7819,7 @@
         <v>11.467475134301369</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="14.25">
       <c r="B108" s="1" t="s">
         <v>116</v>
       </c>
@@ -7827,7 +7863,7 @@
         <v>1.2823030421982338</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="14.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>118</v>
@@ -7879,7 +7915,7 @@
         <v>1.3635259661205608</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="14.25">
       <c r="A110" s="2">
         <v>43126</v>
       </c>
@@ -7934,7 +7970,7 @@
         <v>6.8176599367550468</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="14.25">
       <c r="B111" s="1" t="s">
         <v>127</v>
       </c>
@@ -7979,7 +8015,7 @@
         <v>14.15034066033469</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="14.25">
       <c r="B112" s="1" t="s">
         <v>128</v>
       </c>
@@ -8024,7 +8060,7 @@
         <v>1.5327457573976091</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="14.25">
       <c r="B113" s="1" t="s">
         <v>129</v>
       </c>
@@ -8069,7 +8105,7 @@
         <v>11.024770810680197</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="14.25">
       <c r="B114" s="1" t="s">
         <v>131</v>
       </c>
@@ -8114,7 +8150,7 @@
         <v>24.371831688104496</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="14.25">
       <c r="B115" s="1" t="s">
         <v>135</v>
       </c>
@@ -8153,7 +8189,7 @@
       <c r="T115" s="53"/>
       <c r="U115" s="24"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="14.25">
       <c r="B116" s="1" t="s">
         <v>136</v>
       </c>
@@ -8192,7 +8228,7 @@
       <c r="T116" s="53"/>
       <c r="U116" s="24"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="14.25">
       <c r="B117" s="1" t="s">
         <v>132</v>
       </c>
@@ -8237,7 +8273,7 @@
         <v>10.129329504504504</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="14.25">
       <c r="B118" s="1" t="s">
         <v>133</v>
       </c>
@@ -8282,7 +8318,7 @@
         <v>6.8259661958110076</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="15" thickBot="1">
       <c r="A119" s="48"/>
       <c r="B119" s="48" t="s">
         <v>134</v>
@@ -8335,7 +8371,7 @@
         <v>8.6733262364160577</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="14.25">
       <c r="A120" s="2">
         <v>43129</v>
       </c>
@@ -8383,7 +8419,7 @@
         <v>12.811036369447105</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="14.25">
       <c r="B121" s="1" t="s">
         <v>137</v>
       </c>
@@ -8428,7 +8464,7 @@
         <v>8.9543299370349168</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="14.25">
       <c r="B122" s="1" t="s">
         <v>138</v>
       </c>
@@ -8473,7 +8509,7 @@
         <v>8.1903213768943726</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="14.25">
       <c r="B123" s="1" t="s">
         <v>59</v>
       </c>
@@ -8518,7 +8554,7 @@
         <v>13.841328314028315</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="14.25">
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
@@ -8570,7 +8606,7 @@
         <v>2.3269851935362644</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="14.25">
       <c r="B125" s="1" t="s">
         <v>139</v>
       </c>
@@ -8615,7 +8651,7 @@
         <v>21.679566064111832</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="14.25">
       <c r="B126" s="1" t="s">
         <v>140</v>
       </c>
@@ -8660,7 +8696,7 @@
         <v>6.8880413205537803</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="14.25">
       <c r="B127" s="1" t="s">
         <v>141</v>
       </c>
@@ -8705,7 +8741,7 @@
         <v>21.446249050873199</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="14.25">
       <c r="B128" s="1" t="s">
         <v>142</v>
       </c>
@@ -8750,7 +8786,7 @@
         <v>21.912960161371661</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="14.25">
       <c r="B129" s="1" t="s">
         <v>143</v>
       </c>
@@ -8795,7 +8831,7 @@
         <v>17.046626248216832</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="14.25">
       <c r="B130" s="1" t="s">
         <v>144</v>
       </c>
@@ -8839,7 +8875,7 @@
         <v>1.2776933514838007</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="14.25">
       <c r="B131" s="1" t="s">
         <v>145</v>
       </c>
@@ -8884,7 +8920,7 @@
         <v>11.744163363363366</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="14.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>145</v>
@@ -8937,7 +8973,7 @@
         <v>11.765362214199762</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="14.25">
       <c r="A133" s="2">
         <v>43130</v>
       </c>
@@ -8985,7 +9021,7 @@
         <v>1.8271382919080545</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="14.25">
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
@@ -9030,7 +9066,7 @@
         <v>10.098637655776356</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="14.25">
       <c r="B135" s="3" t="s">
         <v>146</v>
       </c>
@@ -9082,7 +9118,7 @@
         <v>1.5392638249301374</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="14.25">
       <c r="B136" s="1" t="s">
         <v>147</v>
       </c>
@@ -9127,7 +9163,7 @@
         <v>13.03266339869281</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="14.25">
       <c r="B137" s="1" t="s">
         <v>148</v>
       </c>
@@ -9172,7 +9208,7 @@
         <v>1.830217334331711</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="14.25">
       <c r="B138" s="1" t="s">
         <v>148</v>
       </c>
@@ -9217,7 +9253,7 @@
         <v>1.8278222097588335</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="14.25">
       <c r="B139" s="1" t="s">
         <v>149</v>
       </c>
@@ -9262,7 +9298,7 @@
         <v>5.8652915113339326</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="14.25">
       <c r="B140" s="1" t="s">
         <v>150</v>
       </c>
@@ -9307,7 +9343,7 @@
         <v>10.405516177096636</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="14.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>151</v>
@@ -9359,7 +9395,7 @@
         <v>1.2780423529411764</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="14.25">
       <c r="A142" s="2">
         <v>43131</v>
       </c>
@@ -9407,7 +9443,7 @@
         <v>19.481689439225732</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="14.25">
       <c r="B143" s="1" t="s">
         <v>155</v>
       </c>
@@ -9452,7 +9488,7 @@
         <v>22.333308121827415</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="14.25">
       <c r="B144" s="1" t="s">
         <v>156</v>
       </c>
@@ -9497,7 +9533,7 @@
         <v>26.703671891699322</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="14.25">
       <c r="B145" s="1" t="s">
         <v>157</v>
       </c>
@@ -9542,7 +9578,7 @@
         <v>15.951269310829813</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.25">
       <c r="B146" s="1" t="s">
         <v>158</v>
       </c>
@@ -9587,7 +9623,7 @@
         <v>16.109544487717194</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="14.25">
       <c r="B147" s="3" t="s">
         <v>159</v>
       </c>
@@ -9639,7 +9675,7 @@
         <v>10.481828122989837</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="14.25">
       <c r="B148" s="1" t="s">
         <v>152</v>
       </c>
@@ -9684,7 +9720,7 @@
         <v>4.7576763990267636</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="14.25">
       <c r="B149" s="1" t="s">
         <v>153</v>
       </c>
@@ -9729,7 +9765,7 @@
         <v>13.295909256683668</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="14.25">
       <c r="B150" s="1" t="s">
         <v>160</v>
       </c>
@@ -9773,7 +9809,7 @@
         <v>0.75932176141658903</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="14.25">
       <c r="B151" s="1" t="s">
         <v>161</v>
       </c>
@@ -9818,7 +9854,7 @@
         <v>14.271405907172996</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="14.25">
       <c r="B152" s="1" t="s">
         <v>162</v>
       </c>
@@ -9862,7 +9898,7 @@
         <v>0.950857036340649</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="14.25">
       <c r="B153" s="1" t="s">
         <v>163</v>
       </c>
@@ -9907,7 +9943,7 @@
         <v>3.8088335532516493</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="14.25">
       <c r="B154" s="1" t="s">
         <v>160</v>
       </c>
@@ -9951,7 +9987,7 @@
         <v>0.7602076821398025</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="14.25">
       <c r="B155" s="1" t="s">
         <v>164</v>
       </c>
@@ -9996,7 +10032,7 @@
         <v>3.7511632903621859</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="14.25">
       <c r="B156" s="1" t="s">
         <v>165</v>
       </c>
@@ -10041,7 +10077,7 @@
         <v>8.289624463459111</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="14.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>166</v>
@@ -10094,7 +10130,7 @@
         <v>8.7877809450436573</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="14.25">
       <c r="A158" s="2">
         <v>43132</v>
       </c>
@@ -10142,7 +10178,7 @@
         <v>15.894944220204057</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="14.25">
       <c r="B159" s="3" t="s">
         <v>14</v>
       </c>
@@ -10194,7 +10230,7 @@
         <v>17.383604775209552</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="14.25">
       <c r="B160" s="1" t="s">
         <v>167</v>
       </c>
@@ -10239,7 +10275,7 @@
         <v>13.746963744099627</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="14.25">
       <c r="B161" s="1" t="s">
         <v>168</v>
       </c>
@@ -10284,7 +10320,7 @@
         <v>3.3788825475191313</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="14.25">
       <c r="B162" s="1" t="s">
         <v>169</v>
       </c>
@@ -10329,7 +10365,7 @@
         <v>10.445554487179487</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="14.25">
       <c r="B163" s="1" t="s">
         <v>170</v>
       </c>
@@ -10374,7 +10410,7 @@
         <v>2.5716160714168299</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="14.25">
       <c r="B164" s="1" t="s">
         <v>171</v>
       </c>
@@ -10419,7 +10455,7 @@
         <v>9.3683468678883717</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="14.25">
       <c r="B165" s="1" t="s">
         <v>172</v>
       </c>
@@ -10469,7 +10505,7 @@
         <v>0.95865884429337167</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="14.25">
       <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
@@ -10513,7 +10549,7 @@
         <v>0.96809252422377834</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="14.25">
       <c r="B167" s="1" t="s">
         <v>173</v>
       </c>
@@ -10557,7 +10593,7 @@
         <v>0.96502126339537508</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="14.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>174</v>
@@ -10610,7 +10646,7 @@
         <v>5.5458713713713719</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="14.25">
       <c r="A169" s="2">
         <v>43133</v>
       </c>
@@ -10658,7 +10694,7 @@
         <v>8.2378377082118099</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="14.25">
       <c r="B170" s="1" t="s">
         <v>176</v>
       </c>
@@ -10703,7 +10739,7 @@
         <v>11.161012557077626</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="14.25">
       <c r="A171" s="1" t="s">
         <v>224</v>
       </c>
@@ -10771,7 +10807,7 @@
         <v>21.735132999871748</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="14.25">
       <c r="B172" s="1" t="s">
         <v>179</v>
       </c>
@@ -10816,7 +10852,7 @@
         <v>1.3392138667311257</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="14.25">
       <c r="B173" s="3" t="s">
         <v>180</v>
       </c>
@@ -10868,7 +10904,7 @@
         <v>3.7589580930411381</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="14.25">
       <c r="B174" s="1" t="s">
         <v>175</v>
       </c>
@@ -10913,7 +10949,7 @@
         <v>8.0530737502375977</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="14.25">
       <c r="B175" s="1" t="s">
         <v>181</v>
       </c>
@@ -10958,7 +10994,7 @@
         <v>21.104470900788709</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="14.25">
       <c r="B176" s="1" t="s">
         <v>183</v>
       </c>
@@ -11009,7 +11045,7 @@
         <v>18.034571496229827</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" ht="14.25">
       <c r="B177" s="1" t="s">
         <v>184</v>
       </c>
@@ -11054,7 +11090,7 @@
         <v>9.9209071537290718</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" ht="14.25">
       <c r="B178" s="1" t="s">
         <v>185</v>
       </c>
@@ -11099,7 +11135,7 @@
         <v>13.693354341736693</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="14.25">
       <c r="B179" s="1" t="s">
         <v>186</v>
       </c>
@@ -11144,7 +11180,7 @@
         <v>15.999347813150848</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" ht="14.25">
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
@@ -11189,7 +11225,7 @@
         <v>3.7305620421245425</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" ht="14.25">
       <c r="B181" s="1" t="s">
         <v>188</v>
       </c>
@@ -11234,7 +11270,7 @@
         <v>14.43640900701366</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="14.25">
       <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
@@ -11279,7 +11315,7 @@
         <v>9.9174287609238458</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" ht="14.25">
       <c r="A183" s="1" t="s">
         <v>225</v>
       </c>
@@ -11346,7 +11382,7 @@
         <v>6.6998942731277538</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" ht="14.25">
       <c r="B184" s="1" t="s">
         <v>185</v>
       </c>
@@ -11391,7 +11427,7 @@
         <v>13.681044877561218</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="14.25">
       <c r="B185" s="1" t="s">
         <v>204</v>
       </c>
@@ -11436,7 +11472,7 @@
         <v>18.082838503572933</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" ht="14.25">
       <c r="B186" s="1" t="s">
         <v>205</v>
       </c>
@@ -11487,7 +11523,7 @@
         <v>26.671644972720188</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" ht="14.25">
       <c r="B187" s="1" t="s">
         <v>184</v>
       </c>
@@ -11532,46 +11568,46 @@
         <v>10.695334896077512</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3" t="s">
+    <row r="188" spans="1:21" ht="15" thickBot="1">
+      <c r="A188" s="48"/>
+      <c r="B188" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="48">
         <v>1</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="48">
         <v>4282</v>
       </c>
-      <c r="E188" s="33">
+      <c r="E188" s="52">
         <v>43133</v>
       </c>
-      <c r="F188" s="45">
+      <c r="F188" s="49">
         <v>0.61875000000000002</v>
       </c>
-      <c r="G188" s="32">
+      <c r="G188" s="50">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H188" s="66"/>
-      <c r="I188" s="32"/>
-      <c r="J188" s="3">
+      <c r="H188" s="68"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="48">
         <v>4247.2</v>
       </c>
-      <c r="K188" s="33">
+      <c r="K188" s="52">
         <v>43136</v>
       </c>
-      <c r="L188" s="45">
+      <c r="L188" s="49">
         <v>0.39999999999999997</v>
       </c>
-      <c r="M188" s="28">
+      <c r="M188" s="54">
         <f t="shared" si="71"/>
         <v>-10440.000000000055</v>
       </c>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
+      <c r="N188" s="48"/>
+      <c r="O188" s="48"/>
+      <c r="P188" s="51"/>
+      <c r="Q188" s="51"/>
+      <c r="R188" s="51"/>
       <c r="S188" s="11">
         <f>[1]!WSD($B188,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>300</v>
@@ -11584,7 +11620,7 @@
         <v>0.65961827287352748</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" ht="14.25">
       <c r="A189" s="2">
         <v>43136</v>
       </c>
@@ -11632,7 +11668,7 @@
         <v>20.113539826422375</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" ht="14.25">
       <c r="B190" s="1" t="s">
         <v>208</v>
       </c>
@@ -11677,7 +11713,7 @@
         <v>9.3683717810516232</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" ht="14.25">
       <c r="B191" s="3" t="s">
         <v>209</v>
       </c>
@@ -11733,7 +11769,7 @@
         <v>4.254753073436083</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="14.25">
       <c r="B192" s="1" t="s">
         <v>210</v>
       </c>
@@ -11756,7 +11792,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I192" s="34">
-        <f t="shared" ref="I192:I205" si="90">G192*H192</f>
+        <f t="shared" ref="I192:I255" si="90">G192*H192</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J192" s="1">
@@ -11787,7 +11823,7 @@
         <v>27.657903818953322</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="14.25">
       <c r="B193" s="1" t="s">
         <v>211</v>
       </c>
@@ -11841,7 +11877,7 @@
         <v>14.315545184168382</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" ht="14.25">
       <c r="B194" s="1" t="s">
         <v>212</v>
       </c>
@@ -11906,7 +11942,7 @@
         <v>20.448012249775921</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="14.25">
       <c r="B195" s="1" t="s">
         <v>213</v>
       </c>
@@ -11971,7 +12007,7 @@
         <v>20.113552169720347</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" ht="14.25">
       <c r="B196" s="1" t="s">
         <v>214</v>
       </c>
@@ -12029,7 +12065,7 @@
         <v>1.2333110059918007</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" ht="14.25">
       <c r="B197" s="1" t="s">
         <v>215</v>
       </c>
@@ -12094,7 +12130,7 @@
         <v>30.692177777777776</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="14.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>216</v>
@@ -12160,7 +12196,7 @@
         <v>27.17913191811979</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" ht="14.25">
       <c r="A199" s="2">
         <v>43137</v>
       </c>
@@ -12189,12 +12225,18 @@
         <f t="shared" si="90"/>
         <v>5.6666666666666671E-3</v>
       </c>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="28" t="e">
+      <c r="J199" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K199" s="33">
+        <v>43137</v>
+      </c>
+      <c r="L199" s="45">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="M199" s="28">
         <f t="shared" si="93"/>
-        <v>#VALUE!</v>
+        <v>-4030.0000000000005</v>
       </c>
       <c r="N199" s="41">
         <f t="shared" si="92"/>
@@ -12222,7 +12264,7 @@
         <v>13.343793513166345</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" ht="14.25">
       <c r="B200" s="1" t="s">
         <v>230</v>
       </c>
@@ -12248,9 +12290,18 @@
         <f t="shared" si="90"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M200" s="30" t="e">
+      <c r="J200" s="1">
+        <v>53090</v>
+      </c>
+      <c r="K200" s="2">
+        <v>43138</v>
+      </c>
+      <c r="L200" s="40">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="M200" s="30">
         <f t="shared" si="93"/>
-        <v>#VALUE!</v>
+        <v>-13400</v>
       </c>
       <c r="N200" s="24">
         <f t="shared" si="92"/>
@@ -12277,7 +12328,7 @@
         <v>3.7034382575757574</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" ht="14.25">
       <c r="B201" s="1" t="s">
         <v>231</v>
       </c>
@@ -12303,9 +12354,18 @@
         <f t="shared" si="90"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="M201" s="30" t="e">
+      <c r="J201" s="1">
+        <v>14445</v>
+      </c>
+      <c r="K201" s="2">
+        <v>43138</v>
+      </c>
+      <c r="L201" s="40">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="M201" s="30">
         <f t="shared" si="93"/>
-        <v>#VALUE!</v>
+        <v>-9375</v>
       </c>
       <c r="N201" s="24">
         <f t="shared" si="92"/>
@@ -12332,7 +12392,7 @@
         <v>14.906148024948026</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" ht="14.25">
       <c r="B202" s="1" t="s">
         <v>232</v>
       </c>
@@ -12384,7 +12444,7 @@
         <v>20.441921445639188</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" ht="14.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>235</v>
@@ -12414,9 +12474,9 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
-      <c r="M203" s="28" t="e">
-        <f t="shared" si="93"/>
-        <v>#VALUE!</v>
+      <c r="M203" s="28" t="str">
+        <f>IF(J203="","",C203*(J203-D203)*S203)</f>
+        <v/>
       </c>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
@@ -12435,7 +12495,7 @@
         <v>73.373958724202637</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" ht="14.25">
       <c r="A204" s="2">
         <v>43138</v>
       </c>
@@ -12447,6 +12507,12 @@
       </c>
       <c r="D204" s="1">
         <v>274.35000000000002</v>
+      </c>
+      <c r="E204" s="2">
+        <v>43137</v>
+      </c>
+      <c r="F204" s="40">
+        <v>0.88263888888888886</v>
       </c>
       <c r="G204" s="31">
         <v>1.7999999999999999E-2</v>
@@ -12474,31 +12540,51 @@
         <v>2.1382353198469106</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
+    <row r="205" spans="1:21" ht="14.25">
+      <c r="B205" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="3">
         <v>-7</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="3">
         <v>5096</v>
       </c>
-      <c r="G205" s="31">
+      <c r="E205" s="33">
+        <v>43137</v>
+      </c>
+      <c r="F205" s="45">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G205" s="32">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H205" s="67">
+      <c r="H205" s="66">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I205" s="31">
+      <c r="I205" s="32">
         <f t="shared" si="90"/>
         <v>5.9999999999999993E-3</v>
       </c>
-      <c r="M205" s="30" t="str">
+      <c r="J205" s="3">
+        <v>5134</v>
+      </c>
+      <c r="K205" s="33">
+        <v>43138</v>
+      </c>
+      <c r="L205" s="45">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="M205" s="28">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
+        <v>-2660</v>
+      </c>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
       <c r="S205" s="11">
         <f>[1]!WSD($B205,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
         <v>10</v>
@@ -12511,993 +12597,1959 @@
         <v>7.6743186813186801</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" ht="14.25">
+      <c r="B206" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C206" s="1">
+        <v>20</v>
+      </c>
+      <c r="D206" s="1">
+        <v>6778</v>
+      </c>
+      <c r="E206" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F206" s="40">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G206" s="31">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H206" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I206" s="31">
+        <f t="shared" si="90"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
       <c r="M206" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S206" s="11">
+        <f>[1]!WSD($B206,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="T206" s="53">
+        <v>9777083</v>
+      </c>
+      <c r="U206" s="24">
+        <f t="shared" ref="U206" si="98">T206*I206/(D206*S206*0.15)</f>
+        <v>20.194624077899086</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" ht="14.25">
+      <c r="B207" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C207" s="1">
+        <v>29</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4019</v>
+      </c>
+      <c r="E207" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F207" s="40">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="G207" s="31">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H207" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I207" s="31">
+        <f t="shared" si="90"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="M207" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S207" s="11">
+        <f>[1]!WSD($B207,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="T207" s="53">
+        <v>9777084</v>
+      </c>
+      <c r="U207" s="24">
+        <f t="shared" ref="U207:U213" si="99">T207*I207/(D207*S207*0.15)</f>
+        <v>29.19258721074894</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" ht="14.25">
+      <c r="B208" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C208" s="1">
+        <v>4</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2136.5</v>
+      </c>
+      <c r="E208" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F208" s="40">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="G208" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H208" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I208" s="31">
+        <f t="shared" si="90"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="M208" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S208" s="11">
+        <f>[1]!WSD($B208,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="T208" s="53">
+        <v>9777085</v>
+      </c>
+      <c r="U208" s="24">
+        <f t="shared" si="99"/>
+        <v>3.8135131445510568</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" ht="14.25">
+      <c r="B209" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C209" s="1">
+        <v>13</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1373</v>
+      </c>
+      <c r="E209" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F209" s="40">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="G209" s="31">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H209" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I209" s="31">
+        <f t="shared" si="90"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
       <c r="M209" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S209" s="11">
+        <f>[1]!WSD($B209,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="T209" s="53">
+        <v>9777086</v>
+      </c>
+      <c r="U209" s="24">
+        <f t="shared" si="99"/>
+        <v>13.055103908715708</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" ht="14.25">
+      <c r="B210" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C210" s="1">
+        <v>20</v>
+      </c>
+      <c r="D210" s="1">
+        <v>527.5</v>
+      </c>
+      <c r="E210" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F210" s="40">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="G210" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H210" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I210" s="31">
+        <f>IF(G210="","",G210*H210)</f>
+        <v>1.6E-2</v>
+      </c>
       <c r="M210" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S210" s="11">
+        <f>[1]!WSD($B210,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="T210" s="53">
+        <v>9777087</v>
+      </c>
+      <c r="U210" s="24">
+        <f t="shared" si="99"/>
+        <v>19.77041289099526</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" ht="14.25">
+      <c r="B211" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D211" s="1">
+        <v>4194.6000000000004</v>
+      </c>
+      <c r="E211" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F211" s="40">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="G211" s="31">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H211" s="67">
+        <v>1</v>
+      </c>
+      <c r="I211" s="31">
+        <f t="shared" ref="I211:I274" si="100">IF(G211="","",G211*H211)</f>
+        <v>1.9E-2</v>
+      </c>
       <c r="M211" s="30" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="S211" s="11">
+        <f>[1]!WSD($B211,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
+      <c r="T211" s="53">
+        <v>9777088</v>
+      </c>
+      <c r="U211" s="24">
+        <f t="shared" si="99"/>
+        <v>0.98414719454112953</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" ht="14.25">
+      <c r="B212" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3175.2</v>
+      </c>
+      <c r="E212" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F212" s="40">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G212" s="31">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H212" s="67">
+        <v>1</v>
+      </c>
+      <c r="I212" s="31">
+        <f t="shared" si="100"/>
+        <v>1.9E-2</v>
+      </c>
       <c r="M212" s="30" t="str">
-        <f t="shared" ref="M212:M275" si="98">IF(J212="","",C212*(J212-D212)*S212)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M213" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M214" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M212:M275" si="101">IF(J212="","",C212*(J212-D212)*S212)</f>
+        <v/>
+      </c>
+      <c r="S212" s="11">
+        <f>[1]!WSD($B212,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>300</v>
+      </c>
+      <c r="T212" s="53">
+        <v>9777089</v>
+      </c>
+      <c r="U212" s="24">
+        <f t="shared" si="99"/>
+        <v>1.3001084166176757</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" ht="14.25">
+      <c r="B213" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-14</v>
+      </c>
+      <c r="D213" s="1">
+        <v>14370</v>
+      </c>
+      <c r="E213" s="2">
+        <v>43138</v>
+      </c>
+      <c r="F213" s="40">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G213" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H213" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I213" s="31">
+        <f t="shared" si="100"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="J213" s="1">
+        <v>14405</v>
+      </c>
+      <c r="K213" s="2">
+        <v>43138</v>
+      </c>
+      <c r="L213" s="40">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="M213" s="30">
+        <f t="shared" si="101"/>
+        <v>-2450</v>
+      </c>
+      <c r="S213" s="11">
+        <f>[1]!WSD($B213,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="T213" s="53">
+        <v>9777090</v>
+      </c>
+      <c r="U213" s="24">
+        <f t="shared" si="99"/>
+        <v>14.514816979819068</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" ht="14.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C214" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D214" s="3">
+        <v>52690</v>
+      </c>
+      <c r="E214" s="33">
+        <v>43138</v>
+      </c>
+      <c r="F214" s="45">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G214" s="32">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H214" s="66">
+        <v>1</v>
+      </c>
+      <c r="I214" s="32">
+        <f t="shared" si="100"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="28" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="11">
+        <f>[1]!WSD($B214,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="T214" s="53">
+        <v>9777091</v>
+      </c>
+      <c r="U214" s="24">
+        <f t="shared" ref="U214" si="102">T214*I214/(D214*S214*0.15)</f>
+        <v>7.174938672739926</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="I215" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M215" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="I216" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M216" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="I217" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M217" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="I218" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M218" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="I219" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M219" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="I220" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M220" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="I221" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M221" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="I222" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M222" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="I223" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M223" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="I224" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M224" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="9:13">
+      <c r="I225" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M225" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="9:13">
+      <c r="I226" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M226" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="9:13">
+      <c r="I227" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M227" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="9:13">
+      <c r="I228" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M228" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="9:13">
+      <c r="I229" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M229" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="9:13">
+      <c r="I230" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M230" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="9:13">
+      <c r="I231" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M231" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="9:13">
+      <c r="I232" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M232" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="9:13">
+      <c r="I233" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M233" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="9:13">
+      <c r="I234" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M234" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="9:13">
+      <c r="I235" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M235" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="9:13">
+      <c r="I236" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M236" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="9:13">
+      <c r="I237" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M237" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="9:13">
+      <c r="I238" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M238" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="9:13">
+      <c r="I239" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M239" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="9:13">
+      <c r="I240" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M240" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="9:13">
+      <c r="I241" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M241" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="9:13">
+      <c r="I242" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M242" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="9:13">
+      <c r="I243" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M243" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="9:13">
+      <c r="I244" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M244" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="9:13">
+      <c r="I245" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M245" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="9:13">
+      <c r="I246" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M246" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="9:13">
+      <c r="I247" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M247" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="9:13">
+      <c r="I248" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M248" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="9:13">
+      <c r="I249" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M249" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="9:13">
+      <c r="I250" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M250" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="9:13">
+      <c r="I251" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M251" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="9:13">
+      <c r="I252" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M252" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="9:13">
+      <c r="I253" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M253" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="9:13">
+      <c r="I254" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M254" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="9:13">
+      <c r="I255" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M255" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="9:13">
+      <c r="I256" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M256" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="9:13">
+      <c r="I257" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M257" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="9:13">
+      <c r="I258" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M258" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="9:13">
+      <c r="I259" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M259" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="9:13">
+      <c r="I260" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M260" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="9:13">
+      <c r="I261" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M261" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="9:13">
+      <c r="I262" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M262" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="9:13">
+      <c r="I263" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M263" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="9:13">
+      <c r="I264" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M264" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="9:13">
+      <c r="I265" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M265" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="9:13">
+      <c r="I266" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M266" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="9:13">
+      <c r="I267" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M267" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="9:13">
+      <c r="I268" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M268" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="9:13">
+      <c r="I269" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M269" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="9:13">
+      <c r="I270" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M270" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="9:13">
+      <c r="I271" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M271" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="9:13">
+      <c r="I272" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M272" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="9:13">
+      <c r="I273" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M273" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="9:13">
+      <c r="I274" s="31" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
       <c r="M274" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="9:13">
+      <c r="I275" s="31" t="str">
+        <f t="shared" ref="I275:I338" si="103">IF(G275="","",G275*H275)</f>
+        <v/>
+      </c>
       <c r="M275" s="30" t="str">
-        <f t="shared" si="98"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="9:13">
+      <c r="I276" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M276" s="30" t="str">
-        <f t="shared" ref="M276:M339" si="99">IF(J276="","",C276*(J276-D276)*S276)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M276:M339" si="104">IF(J276="","",C276*(J276-D276)*S276)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="9:13">
+      <c r="I277" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M277" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="9:13">
+      <c r="I278" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M278" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="9:13">
+      <c r="I279" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M279" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="9:13">
+      <c r="I280" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M280" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="9:13">
+      <c r="I281" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M281" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="9:13">
+      <c r="I282" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M282" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="9:13">
+      <c r="I283" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M283" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="9:13">
+      <c r="I284" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M284" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="9:13">
+      <c r="I285" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M285" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="9:13">
+      <c r="I286" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M286" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="9:13">
+      <c r="I287" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M287" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="9:13">
+      <c r="I288" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M288" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="9:13">
+      <c r="I289" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M289" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="9:13">
+      <c r="I290" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M290" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="9:13">
+      <c r="I291" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M291" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="9:13">
+      <c r="I292" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M292" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="9:13">
+      <c r="I293" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M293" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="9:13">
+      <c r="I294" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M294" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="9:13">
+      <c r="I295" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M295" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="9:13">
+      <c r="I296" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M296" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="9:13">
+      <c r="I297" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M297" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="9:13">
+      <c r="I298" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M298" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="9:13">
+      <c r="I299" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M299" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="9:13">
+      <c r="I300" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M300" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="9:13">
+      <c r="I301" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M301" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="9:13">
+      <c r="I302" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M302" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="9:13">
+      <c r="I303" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M303" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="9:13">
+      <c r="I304" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M304" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="9:13">
+      <c r="I305" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M305" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="9:13">
+      <c r="I306" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M306" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="9:13">
+      <c r="I307" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M307" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="9:13">
+      <c r="I308" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M308" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="9:13">
+      <c r="I309" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M309" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="9:13">
+      <c r="I310" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M310" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="9:13">
+      <c r="I311" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M311" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="9:13">
+      <c r="I312" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M312" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="9:13">
+      <c r="I313" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M313" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="9:13">
+      <c r="I314" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M314" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="9:13">
+      <c r="I315" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M315" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="9:13">
+      <c r="I316" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M316" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="9:13">
+      <c r="I317" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M317" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="9:13">
+      <c r="I318" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M318" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="9:13">
+      <c r="I319" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M319" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="9:13">
+      <c r="I320" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M320" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="9:13">
+      <c r="I321" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M321" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="9:13">
+      <c r="I322" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M322" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="9:13">
+      <c r="I323" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M323" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="9:13">
+      <c r="I324" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M324" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="9:13">
+      <c r="I325" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M325" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="9:13">
+      <c r="I326" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M326" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="9:13">
+      <c r="I327" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M327" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="9:13">
+      <c r="I328" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M328" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="9:13">
+      <c r="I329" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M329" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="9:13">
+      <c r="I330" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M330" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="9:13">
+      <c r="I331" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M331" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="9:13">
+      <c r="I332" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M332" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="9:13">
+      <c r="I333" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M333" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="9:13">
+      <c r="I334" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M334" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="9:13">
+      <c r="I335" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M335" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="9:13">
+      <c r="I336" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M336" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="9:13">
+      <c r="I337" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M337" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="9:13">
+      <c r="I338" s="31" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
       <c r="M338" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="9:13">
+      <c r="I339" s="31" t="str">
+        <f t="shared" ref="I339:I370" si="105">IF(G339="","",G339*H339)</f>
+        <v/>
+      </c>
       <c r="M339" s="30" t="str">
-        <f t="shared" si="99"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="9:13">
+      <c r="I340" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M340" s="30" t="str">
-        <f t="shared" ref="M340:M370" si="100">IF(J340="","",C340*(J340-D340)*S340)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M340:M370" si="106">IF(J340="","",C340*(J340-D340)*S340)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="9:13">
+      <c r="I341" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M341" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="9:13">
+      <c r="I342" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M342" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="9:13">
+      <c r="I343" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M343" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="9:13">
+      <c r="I344" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M344" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="9:13">
+      <c r="I345" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M345" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="9:13">
+      <c r="I346" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M346" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="9:13">
+      <c r="I347" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M347" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="9:13">
+      <c r="I348" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M348" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="9:13">
+      <c r="I349" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M349" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="9:13">
+      <c r="I350" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M350" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="9:13">
+      <c r="I351" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M351" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="9:13">
+      <c r="I352" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M352" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="9:13">
+      <c r="I353" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M353" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="9:13">
+      <c r="I354" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M354" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="9:13">
+      <c r="I355" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M355" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="9:13">
+      <c r="I356" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M356" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="9:13">
+      <c r="I357" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M357" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="9:13">
+      <c r="I358" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M358" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="9:13">
+      <c r="I359" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M359" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="9:13">
+      <c r="I360" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M360" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="9:13">
+      <c r="I361" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M361" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="9:13">
+      <c r="I362" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M362" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="9:13">
+      <c r="I363" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M363" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="9:13">
+      <c r="I364" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M364" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="9:13">
+      <c r="I365" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M365" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="9:13">
+      <c r="I366" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M366" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="9:13">
+      <c r="I367" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M367" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="9:13">
+      <c r="I368" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M368" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="9:13">
+      <c r="I369" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M369" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="9:13">
+      <c r="I370" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="M370" s="30" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
     </row>
@@ -13518,13 +14570,13 @@
       <selection pane="bottomLeft" activeCell="A41" sqref="A41:K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -13559,7 +14611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
@@ -13594,7 +14646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="24" t="s">
         <v>190</v>
       </c>
@@ -13629,7 +14681,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="24" t="s">
         <v>189</v>
       </c>
@@ -13664,7 +14716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="24" t="s">
         <v>189</v>
       </c>
@@ -13699,7 +14751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="24" t="s">
         <v>189</v>
       </c>
@@ -13734,7 +14786,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="24" t="s">
         <v>189</v>
       </c>
@@ -13769,7 +14821,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="24" t="s">
         <v>191</v>
       </c>
@@ -13804,7 +14856,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="24" t="s">
         <v>62</v>
       </c>
@@ -13839,7 +14891,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -13874,7 +14926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="24" t="s">
         <v>177</v>
       </c>
@@ -13909,7 +14961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="24" t="s">
         <v>65</v>
       </c>
@@ -13944,7 +14996,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
@@ -13979,7 +15031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="24" t="s">
         <v>64</v>
       </c>
@@ -14014,7 +15066,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
         <v>187</v>
       </c>
@@ -14049,7 +15101,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="24" t="s">
         <v>119</v>
       </c>
@@ -14084,7 +15136,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="24" t="s">
         <v>182</v>
       </c>
@@ -14119,7 +15171,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="24" t="s">
         <v>190</v>
       </c>
@@ -14154,7 +15206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="24" t="s">
         <v>79</v>
       </c>
@@ -14189,7 +15241,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -14225,7 +15277,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="24" t="s">
         <v>60</v>
       </c>
@@ -14260,7 +15312,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
@@ -14295,7 +15347,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="24" t="s">
         <v>78</v>
       </c>
@@ -14330,7 +15382,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="24" t="s">
         <v>177</v>
       </c>
@@ -14365,7 +15417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="24" t="s">
         <v>189</v>
       </c>
@@ -14400,7 +15452,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="24" t="s">
         <v>177</v>
       </c>
@@ -14435,7 +15487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="24" t="s">
         <v>192</v>
       </c>
@@ -14470,7 +15522,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="24" t="s">
         <v>182</v>
       </c>
@@ -14505,7 +15557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="24" t="s">
         <v>192</v>
       </c>
@@ -14540,7 +15592,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="24" t="s">
         <v>66</v>
       </c>
@@ -14575,7 +15627,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="24" t="s">
         <v>190</v>
       </c>
@@ -14610,7 +15662,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="24" t="s">
         <v>193</v>
       </c>
@@ -14645,7 +15697,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="24" t="s">
         <v>193</v>
       </c>
@@ -14680,7 +15732,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="24" t="s">
         <v>77</v>
       </c>
@@ -14715,7 +15767,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="24" t="s">
         <v>77</v>
       </c>
@@ -14750,7 +15802,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="24" t="s">
         <v>68</v>
       </c>
@@ -14785,7 +15837,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="24" t="s">
         <v>194</v>
       </c>
@@ -14820,7 +15872,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="24" t="s">
         <v>193</v>
       </c>
@@ -14855,7 +15907,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="24" t="s">
         <v>66</v>
       </c>
@@ -14890,7 +15942,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>184</v>
       </c>
@@ -14925,7 +15977,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="24" t="s">
         <v>74</v>
       </c>
@@ -14960,7 +16012,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="24" t="s">
         <v>72</v>
       </c>
@@ -14995,7 +16047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="24" t="s">
         <v>60</v>
       </c>
@@ -15030,7 +16082,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="24" t="s">
         <v>77</v>
       </c>
@@ -15065,7 +16117,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="24" t="s">
         <v>119</v>
       </c>
@@ -15100,7 +16152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="24" t="s">
         <v>70</v>
       </c>
@@ -15135,7 +16187,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="24" t="s">
         <v>62</v>
       </c>
@@ -15170,7 +16222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -15205,7 +16257,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="24" t="s">
         <v>67</v>
       </c>
@@ -15240,7 +16292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -15275,7 +16327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="24" t="s">
         <v>112</v>
       </c>
@@ -15310,7 +16362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="24" t="s">
         <v>76</v>
       </c>
@@ -15345,7 +16397,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="24" t="s">
         <v>74</v>
       </c>
@@ -15380,7 +16432,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -15415,7 +16467,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -15450,7 +16502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="24" t="s">
         <v>76</v>
       </c>
@@ -15485,7 +16537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="24" t="s">
         <v>177</v>
       </c>
@@ -15520,7 +16572,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="24" t="s">
         <v>64</v>
       </c>
@@ -15555,7 +16607,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="24" t="s">
         <v>67</v>
       </c>
@@ -15590,7 +16642,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="24" t="s">
         <v>70</v>
       </c>
@@ -15625,7 +16677,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="24" t="s">
         <v>74</v>
       </c>
@@ -15660,7 +16712,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="24" t="s">
         <v>76</v>
       </c>
@@ -15695,7 +16747,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="24" t="s">
         <v>70</v>
       </c>
@@ -15730,7 +16782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="24" t="s">
         <v>62</v>
       </c>
@@ -15765,7 +16817,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="24" t="s">
         <v>79</v>
       </c>
@@ -15800,7 +16852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="24" t="s">
         <v>66</v>
       </c>
@@ -15835,7 +16887,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="24" t="s">
         <v>69</v>
       </c>
@@ -15870,7 +16922,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="24" t="s">
         <v>62</v>
       </c>
@@ -15905,7 +16957,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="24" t="s">
         <v>191</v>
       </c>
@@ -15940,7 +16992,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="24" t="s">
         <v>189</v>
       </c>
@@ -15975,7 +17027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="24" t="s">
         <v>62</v>
       </c>
@@ -16010,7 +17062,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="24" t="s">
         <v>112</v>
       </c>
@@ -16045,7 +17097,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="24" t="s">
         <v>66</v>
       </c>
@@ -16080,7 +17132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="24" t="s">
         <v>187</v>
       </c>
@@ -16115,7 +17167,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="24" t="s">
         <v>191</v>
       </c>
@@ -16150,7 +17202,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="24" t="s">
         <v>69</v>
       </c>
@@ -16185,7 +17237,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="24" t="s">
         <v>68</v>
       </c>
@@ -16220,7 +17272,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="24" t="s">
         <v>177</v>
       </c>
@@ -16255,7 +17307,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="24" t="s">
         <v>182</v>
       </c>
@@ -16290,7 +17342,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="24" t="s">
         <v>68</v>
       </c>
@@ -16325,7 +17377,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="24" t="s">
         <v>190</v>
       </c>
@@ -16380,17 +17432,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16415,7 +17467,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>43094</v>
       </c>
@@ -16438,7 +17490,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -16458,7 +17510,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -16478,7 +17530,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -16501,7 +17553,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43095</v>
       </c>
@@ -16524,7 +17576,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -16544,7 +17596,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -16564,7 +17616,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>28</v>
@@ -16587,7 +17639,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>43096</v>
       </c>
@@ -16610,7 +17662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -16630,7 +17682,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
@@ -16650,7 +17702,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
@@ -16670,7 +17722,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="28" t="s">
         <v>29</v>
@@ -16708,15 +17760,15 @@
       <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -16748,7 +17800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43116</v>
       </c>
@@ -16778,7 +17830,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43119</v>
       </c>
@@ -16808,7 +17860,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43117</v>
       </c>
@@ -16838,7 +17890,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43118</v>
       </c>
@@ -16868,7 +17920,7 @@
         <v>4970.039999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43117</v>
       </c>
@@ -16898,7 +17950,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43117</v>
       </c>
@@ -16928,7 +17980,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43119</v>
       </c>
@@ -16958,7 +18010,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43119</v>
       </c>
@@ -16988,7 +18040,7 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43119</v>
       </c>
@@ -17018,7 +18070,7 @@
         <v>-6080</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43118</v>
       </c>
@@ -17048,7 +18100,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43119</v>
       </c>
@@ -17078,7 +18130,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43116</v>
       </c>
@@ -17105,7 +18157,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -17132,7 +18184,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43117</v>
       </c>
@@ -17159,7 +18211,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43117</v>
       </c>
@@ -17186,7 +18238,7 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>43117</v>
       </c>
@@ -17213,7 +18265,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>43117</v>
       </c>
@@ -17240,7 +18292,7 @@
         <v>-540</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>43117</v>
       </c>
@@ -17267,7 +18319,7 @@
         <v>-884.99999999989086</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>43117</v>
       </c>
@@ -17294,7 +18346,7 @@
         <v>-949.99999999990905</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>43117</v>
       </c>
@@ -17321,7 +18373,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>43117</v>
       </c>
@@ -17348,7 +18400,7 @@
         <v>-1750.0000000000728</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>43117</v>
       </c>
@@ -17375,7 +18427,7 @@
         <v>-2350.0000000000728</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>43115</v>
       </c>
@@ -17402,7 +18454,7 @@
         <v>-2400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>43117</v>
       </c>
@@ -17429,7 +18481,7 @@
         <v>-2550</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>43117</v>
       </c>
@@ -17456,7 +18508,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>43117</v>
       </c>
@@ -17483,7 +18535,7 @@
         <v>-2915.0000000001455</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>43117</v>
       </c>
@@ -17510,7 +18562,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>43117</v>
       </c>
@@ -17537,7 +18589,7 @@
         <v>-3825</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>43115</v>
       </c>
@@ -17564,7 +18616,7 @@
         <v>-3840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>43119</v>
       </c>
@@ -17591,7 +18643,7 @@
         <v>-5100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>43117</v>
       </c>
@@ -17618,7 +18670,7 @@
         <v>-6529.9999999999818</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>43115</v>
       </c>
@@ -17645,7 +18697,7 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>43117</v>
       </c>
@@ -17672,7 +18724,7 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>43115</v>
       </c>
@@ -17699,7 +18751,7 @@
         <v>-11570</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>43117</v>
       </c>
@@ -17726,7 +18778,7 @@
         <v>-11970</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>43115</v>
       </c>
@@ -17753,7 +18805,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>43115</v>
       </c>
@@ -17780,7 +18832,7 @@
         <v>-15300</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="35">
         <v>43112</v>
       </c>
@@ -17807,7 +18859,7 @@
         <v>-15800.000000000091</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>43115</v>
       </c>
@@ -17834,7 +18886,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>43115</v>
       </c>
@@ -17861,7 +18913,7 @@
         <v>-19520.000000000073</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>43115</v>
       </c>
@@ -17888,7 +18940,7 @@
         <v>-21280</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>43116</v>
       </c>
@@ -17915,7 +18967,7 @@
         <v>-23040</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="35">
         <v>43112</v>
       </c>
@@ -17942,7 +18994,7 @@
         <v>-31000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>43115</v>
       </c>
@@ -17969,31 +19021,31 @@
         <v>-46360</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="39"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="39"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="39"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="39"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="39"/>
       <c r="C52" s="15"/>
